--- a/Controle_Lote_Validade.xlsx
+++ b/Controle_Lote_Validade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenvie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB31BBA-6138-4803-B8F3-D72FD3FBF287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A181113C-24A2-4060-8A13-C0CE76790C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="1101">
   <si>
     <t>Código do Produto</t>
   </si>
@@ -69,9 +69,6 @@
     <t>AGUA PERF SPLASH LOTUS PATBO 250ML</t>
   </si>
   <si>
-    <t>H2178</t>
-  </si>
-  <si>
     <t>08/28</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>AGUA PERF SPLASH SUMMER PATBO 250ML</t>
   </si>
   <si>
-    <t>G2123</t>
-  </si>
-  <si>
     <t>07/28</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>AGUA PERF SPLASH VANILLA PATBO 250ML</t>
   </si>
   <si>
-    <t>H2200</t>
-  </si>
-  <si>
     <t>106384200</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
     <t>AGUA PERFUMADA ALECRIM MEDITERRANEO ARABESC - 1L</t>
   </si>
   <si>
-    <t>O18</t>
-  </si>
-  <si>
     <t>06/28</t>
   </si>
   <si>
@@ -126,27 +114,18 @@
     <t>AGUA PERFUMADA ALECRIM MEDITERRANEO ARABESC - 500ML</t>
   </si>
   <si>
-    <t>G2099</t>
-  </si>
-  <si>
     <t>107011500</t>
   </si>
   <si>
     <t>AGUA PERFUMADA CITRUS VERBENA ARABESC - 500ML</t>
   </si>
   <si>
-    <t>B1822</t>
-  </si>
-  <si>
     <t>107009500</t>
   </si>
   <si>
     <t>AGUA PERFUMADA FIGO AMBARADO ARABESC - 500ML</t>
   </si>
   <si>
-    <t>13951</t>
-  </si>
-  <si>
     <t>107079500</t>
   </si>
   <si>
@@ -165,27 +144,18 @@
     <t>AGUA PERFUMADA FOUNTAIN CLASSIC - 500ML</t>
   </si>
   <si>
-    <t>F2077</t>
-  </si>
-  <si>
     <t>107003600</t>
   </si>
   <si>
     <t>AGUA PERFUMADA INTO THE NIGHT CLASSIC - 500ML</t>
   </si>
   <si>
-    <t>H2204</t>
-  </si>
-  <si>
     <t>107012500</t>
   </si>
   <si>
     <t>AGUA PERFUMADA LAVANDA ABSOLUTA ARABESC - 500ML</t>
   </si>
   <si>
-    <t>F2086</t>
-  </si>
-  <si>
     <t>107002600</t>
   </si>
   <si>
@@ -231,45 +201,30 @@
     <t>AGUA PERFUMADA MAMY CARNEIRINHO - 500ML</t>
   </si>
   <si>
-    <t>E2004</t>
-  </si>
-  <si>
     <t>107074500</t>
   </si>
   <si>
     <t>AGUA PERFUMADA MANDARINA CEYLON ARABESC - 500ML</t>
   </si>
   <si>
-    <t>14349</t>
-  </si>
-  <si>
     <t>107088500</t>
   </si>
   <si>
     <t>AGUA PERFUMADA MUSGO DE CARVALHO ELEMENTOS - 500ML</t>
   </si>
   <si>
-    <t>H2175</t>
-  </si>
-  <si>
     <t>107033000</t>
   </si>
   <si>
     <t>AGUA PERFUMADA PATCHOULI VANILLA - 1L</t>
   </si>
   <si>
-    <t>H2177</t>
-  </si>
-  <si>
     <t>107033500</t>
   </si>
   <si>
     <t>AGUA PERFUMADA PATCHOULI VANILLA ARABESC - 500ML</t>
   </si>
   <si>
-    <t>I2212</t>
-  </si>
-  <si>
     <t>107083200</t>
   </si>
   <si>
@@ -285,9 +240,6 @@
     <t>AGUA PERFUMADA PESSEGO ORIENTAL ELEMENTOS - 500ML</t>
   </si>
   <si>
-    <t>I2222</t>
-  </si>
-  <si>
     <t>107018500</t>
   </si>
   <si>
@@ -312,9 +264,6 @@
     <t>AGUA PERFUMADA TERRA DO SOL LENVIE+AGUA DE COCO - 500ML</t>
   </si>
   <si>
-    <t>C1908</t>
-  </si>
-  <si>
     <t>03/28</t>
   </si>
   <si>
@@ -501,9 +450,6 @@
     <t>DIFUSOR DE PERFUME AMBAR &amp; PATCHOULI URBAN 220ML</t>
   </si>
   <si>
-    <t>LEN203.0002</t>
-  </si>
-  <si>
     <t>105084130</t>
   </si>
   <si>
@@ -519,9 +465,6 @@
     <t>DIFUSOR DE PERFUME BERGAMOTA &amp; FRAMBOESA URBAN 220ML</t>
   </si>
   <si>
-    <t>LEN205.0001</t>
-  </si>
-  <si>
     <t>106098220</t>
   </si>
   <si>
@@ -537,9 +480,6 @@
     <t>DIFUSOR DE PERFUME CITRUS VERBENA - ARABESC - 200ML</t>
   </si>
   <si>
-    <t>G2126</t>
-  </si>
-  <si>
     <t>105069130</t>
   </si>
   <si>
@@ -555,9 +495,6 @@
     <t>DIFUSOR DE PERFUME FIGO AMBARADO ARABESC - 200ML</t>
   </si>
   <si>
-    <t>LEN41.0022</t>
-  </si>
-  <si>
     <t>10654220</t>
   </si>
   <si>
@@ -666,9 +603,6 @@
     <t>DIFUSOR DE PERFUME LOTUS GARDEN LENVIE-PATBO - 200ML</t>
   </si>
   <si>
-    <t>G2138</t>
-  </si>
-  <si>
     <t>105002201</t>
   </si>
   <si>
@@ -714,9 +648,6 @@
     <t>105074200</t>
   </si>
   <si>
-    <t>DIFUSOR DE PERFUME MANDARINA CEYLON ARABESC - 200ML</t>
-  </si>
-  <si>
     <t>I2211</t>
   </si>
   <si>
@@ -741,18 +672,12 @@
     <t>DIFUSOR DE PERFUME MATCHA &amp; HINOKI URBAN 220ML</t>
   </si>
   <si>
-    <t>LEN201.0001</t>
-  </si>
-  <si>
     <t>104088200</t>
   </si>
   <si>
     <t>DIFUSOR DE PERFUME MUSGO DE CARVALHO ELEMENTOS - 200ML</t>
   </si>
   <si>
-    <t>097</t>
-  </si>
-  <si>
     <t>106315130</t>
   </si>
   <si>
@@ -801,9 +726,6 @@
     <t>DIFUSOR DE PERFUME PESSEGO ORIENTAL ELEMENTOS - 200ML</t>
   </si>
   <si>
-    <t>D1954</t>
-  </si>
-  <si>
     <t>106046220</t>
   </si>
   <si>
@@ -840,9 +762,6 @@
     <t>DIFUSOR DE PERFUME SUNSET ROSE ELEMENTOS - 250ML</t>
   </si>
   <si>
-    <t>G2096</t>
-  </si>
-  <si>
     <t>104059200</t>
   </si>
   <si>
@@ -858,9 +777,6 @@
     <t>DIFUSOR DE PERFUME VANILLA BLOOM - PATBO - 200ML</t>
   </si>
   <si>
-    <t>F2084</t>
-  </si>
-  <si>
     <t>106047220</t>
   </si>
   <si>
@@ -1041,9 +957,6 @@
     <t>HOME SPRAY CRISTAL MASP 100ML</t>
   </si>
   <si>
-    <t>G2147</t>
-  </si>
-  <si>
     <t>104092100</t>
   </si>
   <si>
@@ -1068,9 +981,6 @@
     <t>HOME SPRAY FIGO AMBARADO ARABESC - 200ML</t>
   </si>
   <si>
-    <t>098</t>
-  </si>
-  <si>
     <t>104079999</t>
   </si>
   <si>
@@ -1086,9 +996,6 @@
     <t>HOME SPRAY FLOR DE LARANJEIRA ELEMENTOS - 200ML</t>
   </si>
   <si>
-    <t>D1987</t>
-  </si>
-  <si>
     <t>104001100</t>
   </si>
   <si>
@@ -1110,9 +1017,6 @@
     <t>HOME SPRAY INTO THE NIGHT CLASSIC - 100ML</t>
   </si>
   <si>
-    <t>I2209</t>
-  </si>
-  <si>
     <t>104003999</t>
   </si>
   <si>
@@ -1143,9 +1047,6 @@
     <t>HOME SPRAY LEGNO DI MALTA - 200ML</t>
   </si>
   <si>
-    <t>B1850</t>
-  </si>
-  <si>
     <t>104017201</t>
   </si>
   <si>
@@ -1155,9 +1056,6 @@
     <t>HOME SPRAY LUMIERE CLASSIC - 100ML</t>
   </si>
   <si>
-    <t>G2097</t>
-  </si>
-  <si>
     <t>104013100</t>
   </si>
   <si>
@@ -1194,9 +1092,6 @@
     <t>HOME SPRAY MAMY CARNEIRINHO - 250ML</t>
   </si>
   <si>
-    <t>H2161</t>
-  </si>
-  <si>
     <t>104015999</t>
   </si>
   <si>
@@ -1215,18 +1110,12 @@
     <t>HOME SPRAY MANDARINA CEYLON ARABESC - 200ML</t>
   </si>
   <si>
-    <t>3323</t>
-  </si>
-  <si>
     <t>104188200</t>
   </si>
   <si>
     <t>HOME SPRAY MUSGO DE CARVALHO ELEMENTOS - 200ML</t>
   </si>
   <si>
-    <t>O60</t>
-  </si>
-  <si>
     <t>104033100</t>
   </si>
   <si>
@@ -1323,9 +1212,6 @@
     <t>KIT AGUA PERF MIX 3 UN 200ML</t>
   </si>
   <si>
-    <t>F2067</t>
-  </si>
-  <si>
     <t>10139274</t>
   </si>
   <si>
@@ -1413,9 +1299,6 @@
     <t>KIT DE 4 MINI VELAS LENVIE &amp; BACIO DI LATTE - 70G</t>
   </si>
   <si>
-    <t>1567</t>
-  </si>
-  <si>
     <t>05/27</t>
   </si>
   <si>
@@ -1425,9 +1308,6 @@
     <t>KIT DIF E SAB LIQ MAGNOLIA 150ML</t>
   </si>
   <si>
-    <t>LEN215.0002</t>
-  </si>
-  <si>
     <t>106130172</t>
   </si>
   <si>
@@ -1551,9 +1431,6 @@
     <t>OLEO CONCENTRADO ALECRIM MEDITERRANEO ARABESC - 20ML</t>
   </si>
   <si>
-    <t>OLAM2509</t>
-  </si>
-  <si>
     <t>09/27</t>
   </si>
   <si>
@@ -1584,9 +1461,6 @@
     <t>OLEO CONCENTRADO FLOR DE LARANJEIRA ELEMENTOS - 20ML</t>
   </si>
   <si>
-    <t>OLFL2508</t>
-  </si>
-  <si>
     <t>114049020</t>
   </si>
   <si>
@@ -1641,18 +1515,12 @@
     <t>OLEO CONCENTRADO PATCHOULI VANILLA - ARABESC - 20ML</t>
   </si>
   <si>
-    <t>OLPV2509</t>
-  </si>
-  <si>
     <t>114083020</t>
   </si>
   <si>
     <t>OLEO CONCENTRADO PESSEGO ORIENTAL - ELEMENTOS - 20ML</t>
   </si>
   <si>
-    <t>OLPO2409</t>
-  </si>
-  <si>
     <t>114061020</t>
   </si>
   <si>
@@ -1668,9 +1536,6 @@
     <t>PROVADOR SPRAY ALECRIM MEDITERRANEO ARABESC - 60ML</t>
   </si>
   <si>
-    <t>HLAM.2508</t>
-  </si>
-  <si>
     <t>105024060</t>
   </si>
   <si>
@@ -1692,9 +1557,6 @@
     <t>PROVADOR SPRAY BERGAMOTA &amp; FRAMBOESA URBAN 60ML</t>
   </si>
   <si>
-    <t>LEN1910001</t>
-  </si>
-  <si>
     <t>106198120</t>
   </si>
   <si>
@@ -1740,9 +1602,6 @@
     <t>PROVADOR SPRAY FIGO AMBARADO - 60ML</t>
   </si>
   <si>
-    <t>HLFA2509</t>
-  </si>
-  <si>
     <t>104079120</t>
   </si>
   <si>
@@ -1788,9 +1647,6 @@
     <t>PROVADOR SPRAY INTO THE NIGHT - 60ML</t>
   </si>
   <si>
-    <t>HLIN2507</t>
-  </si>
-  <si>
     <t>104036120</t>
   </si>
   <si>
@@ -1821,9 +1677,6 @@
     <t>PROVADOR SPRAY LOTUS GARDEN - PATBO - 60ML</t>
   </si>
   <si>
-    <t>C1895</t>
-  </si>
-  <si>
     <t>104021120</t>
   </si>
   <si>
@@ -1839,9 +1692,6 @@
     <t>PROVADOR SPRAY MAGNOLIA PACIFICA - 60ML</t>
   </si>
   <si>
-    <t>HLMP2509</t>
-  </si>
-  <si>
     <t>104027120</t>
   </si>
   <si>
@@ -1857,9 +1707,6 @@
     <t>PROVADOR SPRAY MANDARINA CEYLON - 60ML</t>
   </si>
   <si>
-    <t>HLMA2507</t>
-  </si>
-  <si>
     <t>105016060</t>
   </si>
   <si>
@@ -1875,9 +1722,6 @@
     <t>PROVADOR SPRAY MUSGO DE CARVALHO ELEMENTOS - 60ML</t>
   </si>
   <si>
-    <t>HLMC25066</t>
-  </si>
-  <si>
     <t>104018060</t>
   </si>
   <si>
@@ -1905,18 +1749,12 @@
     <t>PROVADOR SPRAY PEONIA &amp; LIMA URBAN 60ML</t>
   </si>
   <si>
-    <t>LEN189.002</t>
-  </si>
-  <si>
     <t>11152000</t>
   </si>
   <si>
     <t>PROVADOR SPRAY PEPINO E ERVAS VERDES</t>
   </si>
   <si>
-    <t>LEN236.0001</t>
-  </si>
-  <si>
     <t>104083060</t>
   </si>
   <si>
@@ -1953,18 +1791,12 @@
     <t>PROVADOR SPRAY SUMMER PEAR LENVIE-PATBO - 60ML</t>
   </si>
   <si>
-    <t>LEN970002</t>
-  </si>
-  <si>
     <t>104018120</t>
   </si>
   <si>
     <t>PROVADOR SPRAY SUNSET ROSE ELEMENTOS - 60ML</t>
   </si>
   <si>
-    <t>HLSR2507</t>
-  </si>
-  <si>
     <t>105018060</t>
   </si>
   <si>
@@ -1998,9 +1830,6 @@
     <t>PROVADOR SPRAY VERMELHO MASP 60ML</t>
   </si>
   <si>
-    <t>62145</t>
-  </si>
-  <si>
     <t>106147120</t>
   </si>
   <si>
@@ -2019,9 +1848,6 @@
     <t>REFIL DIFUSOR ALECRIM MEDITERRANEO - 200ML</t>
   </si>
   <si>
-    <t>717</t>
-  </si>
-  <si>
     <t>116098200</t>
   </si>
   <si>
@@ -2043,9 +1869,6 @@
     <t>REFIL DIFUSOR DE PERFUME FIGO AMBARADO - 200ML</t>
   </si>
   <si>
-    <t>LEN41.0041</t>
-  </si>
-  <si>
     <t>115079200</t>
   </si>
   <si>
@@ -2100,9 +1923,6 @@
     <t>REFIL DIFUSOR DE PERFUME MAGNOLIA PACIFICA - 200ML</t>
   </si>
   <si>
-    <t>LEN5.0020</t>
-  </si>
-  <si>
     <t>112015001</t>
   </si>
   <si>
@@ -2172,27 +1992,18 @@
     <t>REFIL HOME SPRAY FIGO AMBARADO ARABESC - 200ML</t>
   </si>
   <si>
-    <t>B1867</t>
-  </si>
-  <si>
     <t>109013200</t>
   </si>
   <si>
     <t>REFIL HOME SPRAY MAGNOLIA PACIFICA ARABESC - 200ML</t>
   </si>
   <si>
-    <t>3096</t>
-  </si>
-  <si>
     <t>109074200</t>
   </si>
   <si>
     <t>REFIL HOME SPRAY MANDARINA CEYLON ARABESC - 200ML</t>
   </si>
   <si>
-    <t>C1897</t>
-  </si>
-  <si>
     <t>109033200</t>
   </si>
   <si>
@@ -2208,18 +2019,12 @@
     <t>REFIL SABONETE LIQUIDO FIGO AMBARADO - 500ML</t>
   </si>
   <si>
-    <t>LEN38.0024</t>
-  </si>
-  <si>
     <t>112079500</t>
   </si>
   <si>
     <t>REFIL SABONETE LIQUIDO FLOR DE LARANJEIRA ELEMENTOS - 500ML</t>
   </si>
   <si>
-    <t>D1989</t>
-  </si>
-  <si>
     <t>113001500</t>
   </si>
   <si>
@@ -2235,9 +2040,6 @@
     <t>REFIL SABONETE LIQUIDO INTO THE NIGHT  - 500ML</t>
   </si>
   <si>
-    <t>H2202</t>
-  </si>
-  <si>
     <t>113013001</t>
   </si>
   <si>
@@ -2253,18 +2055,12 @@
     <t>REFIL SABONETE LIQUIDO MANDARINA CEYLON - 500ML</t>
   </si>
   <si>
-    <t>F2064</t>
-  </si>
-  <si>
     <t>114288500</t>
   </si>
   <si>
     <t>REFIL SABONETE LIQUIDO MUSGO DE CARVALHO ELEMENTOS - 500ML</t>
   </si>
   <si>
-    <t>3342</t>
-  </si>
-  <si>
     <t>113033001</t>
   </si>
   <si>
@@ -2289,9 +2085,6 @@
     <t>REFIL SABONETE LIQUIDO SUNSET ROSE ELEMENTOS - 500ML</t>
   </si>
   <si>
-    <t>C1907</t>
-  </si>
-  <si>
     <t>10531120</t>
   </si>
   <si>
@@ -2325,18 +2118,12 @@
     <t>SAB LIQ PEPINO E ERVAS VERDES 500ML</t>
   </si>
   <si>
-    <t>LEN239.0002</t>
-  </si>
-  <si>
     <t>106284200</t>
   </si>
   <si>
     <t>SABONETE LIQUIDO ALECRIM MEDITERRANEO ARABESC - 200ML</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
     <t>106084350</t>
   </si>
   <si>
@@ -2400,9 +2187,6 @@
     <t>SABONETE LIQUIDO FIGO AMBARADO ARABESC - 200ML</t>
   </si>
   <si>
-    <t>LEN38.0025</t>
-  </si>
-  <si>
     <t>102009350</t>
   </si>
   <si>
@@ -2460,9 +2244,6 @@
     <t>SABONETE LIQUIDO INTO THE NIGHT CLASSIC - 250ML</t>
   </si>
   <si>
-    <t>F2065</t>
-  </si>
-  <si>
     <t>102053250</t>
   </si>
   <si>
@@ -2508,9 +2289,6 @@
     <t>SABONETE LIQUIDO LOTUS GARDEN LENVIE-PATBO - 200ML</t>
   </si>
   <si>
-    <t>LEN910004</t>
-  </si>
-  <si>
     <t>102002250</t>
   </si>
   <si>
@@ -2526,18 +2304,12 @@
     <t>SABONETE LIQUIDO MAGNOLIA PACIFICA ARABESC - 200ML</t>
   </si>
   <si>
-    <t>G2095</t>
-  </si>
-  <si>
     <t>102013350</t>
   </si>
   <si>
     <t>SABONETE LIQUIDO MAGNOLIA PACIFICA ARABESC - 350ML</t>
   </si>
   <si>
-    <t>D1990</t>
-  </si>
-  <si>
     <t>102057250</t>
   </si>
   <si>
@@ -2640,9 +2412,6 @@
     <t>SABONETE LIQUIDO PATCHOULI VANILLA ARABESC - 350ML</t>
   </si>
   <si>
-    <t>O54</t>
-  </si>
-  <si>
     <t>102058250</t>
   </si>
   <si>
@@ -2676,9 +2445,6 @@
     <t>SABONETE LIQUIDO PESSEGO ORIENTAL ELEMENTOS - 350ML</t>
   </si>
   <si>
-    <t>A1808</t>
-  </si>
-  <si>
     <t>106246200</t>
   </si>
   <si>
@@ -2715,9 +2481,6 @@
     <t>SABONETE LIQUIDO SUNSET ROSE ELEMENTOS - 250ML</t>
   </si>
   <si>
-    <t>D1955</t>
-  </si>
-  <si>
     <t>102018350</t>
   </si>
   <si>
@@ -2733,9 +2496,6 @@
     <t>SABONETE LIQUIDO TERRA DO SOL LENVIE+AGUA DE COCO - 200ML</t>
   </si>
   <si>
-    <t>F2071</t>
-  </si>
-  <si>
     <t>102044200</t>
   </si>
   <si>
@@ -2817,18 +2577,12 @@
     <t>SABONETE VEGETAL EM BARRA SUMMER PEAR LENVIE-PATBO - 150G</t>
   </si>
   <si>
-    <t>250501</t>
-  </si>
-  <si>
     <t>102044150</t>
   </si>
   <si>
     <t>SABONETE VEGETAL EM BARRA VANILLA BLOOM - PATBO - 150G</t>
   </si>
   <si>
-    <t>250601</t>
-  </si>
-  <si>
     <t>1111504</t>
   </si>
   <si>
@@ -2901,9 +2655,6 @@
     <t>VELA PERF AMBAR &amp; PATCHOULI URBAN 190G</t>
   </si>
   <si>
-    <t>1522</t>
-  </si>
-  <si>
     <t>04/27</t>
   </si>
   <si>
@@ -2931,18 +2682,12 @@
     <t>VELA PERF CRISTAL MASP 170G</t>
   </si>
   <si>
-    <t>1658</t>
-  </si>
-  <si>
     <t>10608250</t>
   </si>
   <si>
     <t>VELA PERF LATA SUNSET 250G</t>
   </si>
   <si>
-    <t>1648</t>
-  </si>
-  <si>
     <t>10652140</t>
   </si>
   <si>
@@ -2997,9 +2742,6 @@
     <t>VELA PERFUMADA FLOR DE LARANJEIRA ELEMENTOS - 210G</t>
   </si>
   <si>
-    <t>25/4978</t>
-  </si>
-  <si>
     <t>101001200</t>
   </si>
   <si>
@@ -3033,27 +2775,18 @@
     <t>VELA PERFUMADA INTO THE NIGHT CLASSIC - 210G</t>
   </si>
   <si>
-    <t>25/5196</t>
-  </si>
-  <si>
     <t>101032250</t>
   </si>
   <si>
     <t>VELA PERFUMADA LATA INTO THE NIGHT - ED. ESPECIAL - 250G</t>
   </si>
   <si>
-    <t>25/5118</t>
-  </si>
-  <si>
     <t>107013250</t>
   </si>
   <si>
     <t>VELA PERFUMADA LATA MAGNOLIA PACIFICA - ED. ESPECIAL - 250G</t>
   </si>
   <si>
-    <t>25/4772</t>
-  </si>
-  <si>
     <t>104074250</t>
   </si>
   <si>
@@ -3066,9 +2799,6 @@
     <t>VELA PERFUMADA LATA PATCHOULI VANILLA - ED. ESPECIAL - 250G</t>
   </si>
   <si>
-    <t>25/4773</t>
-  </si>
-  <si>
     <t>105017190</t>
   </si>
   <si>
@@ -3096,9 +2826,6 @@
     <t>VELA PERFUMADA LOTUS GARDEN - PATBO - 210G</t>
   </si>
   <si>
-    <t>244196</t>
-  </si>
-  <si>
     <t>107013210</t>
   </si>
   <si>
@@ -3114,9 +2841,6 @@
     <t>VELA PERFUMADA MANDARINA CEYLON ARABESC - 210G</t>
   </si>
   <si>
-    <t>25/4924</t>
-  </si>
-  <si>
     <t>102016190</t>
   </si>
   <si>
@@ -3198,9 +2922,6 @@
     <t>VELA PERFUMADA SUNSET ROSE - 210G</t>
   </si>
   <si>
-    <t>255115</t>
-  </si>
-  <si>
     <t>102018190</t>
   </si>
   <si>
@@ -3346,17 +3067,297 @@
   </si>
   <si>
     <t xml:space="preserve">KIT MAGNOLIA BARRA DE CERA 40G 10 UN </t>
+  </si>
+  <si>
+    <t>J2265</t>
+  </si>
+  <si>
+    <t>LEN239.0003</t>
+  </si>
+  <si>
+    <t>25/4980</t>
+  </si>
+  <si>
+    <t>255239</t>
+  </si>
+  <si>
+    <t>25/5267</t>
+  </si>
+  <si>
+    <t>25/5268</t>
+  </si>
+  <si>
+    <t>25/5241</t>
+  </si>
+  <si>
+    <t>170510/27</t>
+  </si>
+  <si>
+    <t>1671</t>
+  </si>
+  <si>
+    <t>25/5028</t>
+  </si>
+  <si>
+    <t>25/4722</t>
+  </si>
+  <si>
+    <t>25/5245</t>
+  </si>
+  <si>
+    <t>1667</t>
+  </si>
+  <si>
+    <t>1572</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>J2293</t>
+  </si>
+  <si>
+    <t>J2273</t>
+  </si>
+  <si>
+    <t>LEN910005</t>
+  </si>
+  <si>
+    <t>LEN38.0027</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>LEN89.0005</t>
+  </si>
+  <si>
+    <t>LEN83.0006</t>
+  </si>
+  <si>
+    <t>J2266</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>J2275</t>
+  </si>
+  <si>
+    <t>B1875</t>
+  </si>
+  <si>
+    <t>J2277</t>
+  </si>
+  <si>
+    <t>J2274</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>J2294</t>
+  </si>
+  <si>
+    <t>J2250</t>
+  </si>
+  <si>
+    <t>J2267</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>J2261</t>
+  </si>
+  <si>
+    <t>LEN130.0004</t>
+  </si>
+  <si>
+    <t>LEN276.0001</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>LEN41.0021</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>LEN5.0022</t>
+  </si>
+  <si>
+    <t>J2263</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>I2220</t>
+  </si>
+  <si>
+    <t>J2264</t>
+  </si>
+  <si>
+    <t>LEN201.0002</t>
+  </si>
+  <si>
+    <t>LEN205.0002</t>
+  </si>
+  <si>
+    <t>LEN203.0003</t>
+  </si>
+  <si>
+    <t>LEN41.0023</t>
+  </si>
+  <si>
+    <t>J2298</t>
+  </si>
+  <si>
+    <t>J2262</t>
+  </si>
+  <si>
+    <t>LEN87.0004</t>
+  </si>
+  <si>
+    <t>LEN38.0026</t>
+  </si>
+  <si>
+    <t>J2259</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>J2282</t>
+  </si>
+  <si>
+    <t>J2251</t>
+  </si>
+  <si>
+    <t>J2283</t>
+  </si>
+  <si>
+    <t>J2290</t>
+  </si>
+  <si>
+    <t>H2176</t>
+  </si>
+  <si>
+    <t>J2258</t>
+  </si>
+  <si>
+    <t>J2288</t>
+  </si>
+  <si>
+    <t>J2308</t>
+  </si>
+  <si>
+    <t>J2257</t>
+  </si>
+  <si>
+    <t>J2291</t>
+  </si>
+  <si>
+    <t>J2304</t>
+  </si>
+  <si>
+    <t>B1863</t>
+  </si>
+  <si>
+    <t>J2272</t>
+  </si>
+  <si>
+    <t>J2256</t>
+  </si>
+  <si>
+    <t>J2289</t>
+  </si>
+  <si>
+    <t>1718</t>
+  </si>
+  <si>
+    <t>LEN215.0003</t>
+  </si>
+  <si>
+    <t>J2269</t>
+  </si>
+  <si>
+    <t>HLFA2510</t>
+  </si>
+  <si>
+    <t>HLMC2510</t>
+  </si>
+  <si>
+    <t>HLAM2510</t>
+  </si>
+  <si>
+    <t>J2284</t>
+  </si>
+  <si>
+    <t>LEN1910003</t>
+  </si>
+  <si>
+    <t>I2214</t>
+  </si>
+  <si>
+    <t>HLMP2510</t>
+  </si>
+  <si>
+    <t>HLIN2510</t>
+  </si>
+  <si>
+    <t>HLMA2510</t>
+  </si>
+  <si>
+    <t>HLSR2510</t>
+  </si>
+  <si>
+    <t>LEN236.0004</t>
+  </si>
+  <si>
+    <t>LEN189.0001</t>
+  </si>
+  <si>
+    <t>LEN970003</t>
+  </si>
+  <si>
+    <t>OLFL2510</t>
+  </si>
+  <si>
+    <t>OLAM2510</t>
+  </si>
+  <si>
+    <t>OLPO24091</t>
+  </si>
+  <si>
+    <t>OLPV2510</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3415,6 +3416,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3538,100 +3545,103 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3852,8 +3862,8 @@
   <dimension ref="A1:D992"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D172" sqref="D172"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -3900,175 +3910,175 @@
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>10</v>
+        <v>1066</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>1067</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
+        <v>1068</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>25</v>
+        <v>1083</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>1079</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>32</v>
+        <v>1075</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>35</v>
+        <v>1071</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>42</v>
+        <v>1073</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>45</v>
+        <v>1072</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>48</v>
+        <v>1078</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>7</v>
@@ -4076,27 +4086,27 @@
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>7</v>
@@ -4104,125 +4114,125 @@
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>64</v>
+        <v>1076</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>67</v>
+        <v>1070</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>70</v>
+        <v>1080</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>73</v>
+        <v>1045</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>76</v>
+        <v>1069</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>82</v>
+        <v>1077</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>7</v>
@@ -4230,450 +4240,450 @@
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>91</v>
+        <v>1074</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.25" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.25" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.25" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>154</v>
+        <v>1058</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.25" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.25" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>160</v>
+        <v>1057</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.25" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.25" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>166</v>
+        <v>1060</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.25" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.25" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>172</v>
+        <v>1059</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.25" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" hidden="1" customHeight="1">
@@ -4684,167 +4694,167 @@
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>180</v>
+        <v>1052</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1">
       <c r="A63" s="10" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.25" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.25" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.25" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.25" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.25" customHeight="1">
       <c r="A69" s="5" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.25" customHeight="1">
       <c r="A70" s="5" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>209</v>
+        <v>1061</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.25" customHeight="1">
       <c r="A71" s="5" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>7</v>
@@ -4852,685 +4862,685 @@
     </row>
     <row r="72" spans="1:4" ht="14.25" customHeight="1">
       <c r="A72" s="5" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.25" customHeight="1">
       <c r="A73" s="5" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.25" customHeight="1">
       <c r="A74" s="5" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.25" customHeight="1">
       <c r="A75" s="5" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.25" customHeight="1">
       <c r="A76" s="5" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="14.25" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="14.25" customHeight="1">
       <c r="A78" s="5" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="14.25" customHeight="1">
       <c r="A79" s="5" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>234</v>
+        <v>1056</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="14.25" customHeight="1">
       <c r="A80" s="5" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>237</v>
+        <v>1053</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="14.25" customHeight="1">
       <c r="A81" s="5" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="14.25" customHeight="1">
       <c r="A82" s="5" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="14.25" customHeight="1">
       <c r="A83" s="5" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="14.25" customHeight="1">
       <c r="A84" s="5" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="14.25" customHeight="1">
       <c r="A85" s="5" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="14.25" customHeight="1">
       <c r="A86" s="5" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>254</v>
+        <v>1054</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="14.25" customHeight="1">
       <c r="A87" s="5" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.25" customHeight="1">
       <c r="A88" s="5" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="14.25" customHeight="1">
       <c r="A89" s="5" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="14.25" customHeight="1">
       <c r="A90" s="5" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="14.25" customHeight="1">
       <c r="A91" s="5" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>267</v>
+        <v>1055</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="14.25" customHeight="1">
       <c r="A92" s="5" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="14.25" customHeight="1">
       <c r="A93" s="5" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>273</v>
+        <v>1062</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="14.25" customHeight="1">
       <c r="A94" s="5" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="14.25" customHeight="1">
       <c r="A95" s="5" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="14.25" customHeight="1">
       <c r="A96" s="5" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="14.25" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="14.25" customHeight="1">
       <c r="A98" s="5" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="14.25" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="14.25" customHeight="1">
       <c r="A100" s="5" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>293</v>
+        <v>1024</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="14.25" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="14.25" customHeight="1">
       <c r="A102" s="5" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.25" customHeight="1">
       <c r="A103" s="5" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>302</v>
+        <v>1025</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="14.25" customHeight="1">
       <c r="A104" s="5" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="14.25" customHeight="1">
       <c r="A105" s="5" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="14.25" customHeight="1">
       <c r="A106" s="5" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="14.25" customHeight="1">
       <c r="A107" s="5" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="14.25" customHeight="1">
       <c r="A108" s="5" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="14.25" customHeight="1">
       <c r="A109" s="5" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="14.25" customHeight="1">
       <c r="A110" s="5" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="14.25" customHeight="1">
       <c r="A111" s="5" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="14.25" customHeight="1">
       <c r="A112" s="5" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="14.25" customHeight="1">
       <c r="A113" s="5" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>331</v>
+        <v>1038</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="14.25" customHeight="1">
       <c r="A114" s="5" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>334</v>
+        <v>1035</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="14.25" customHeight="1">
       <c r="A115" s="5" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="14.25" customHeight="1">
       <c r="A116" s="5" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="14.25" customHeight="1">
       <c r="A117" s="5" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>343</v>
+        <v>1039</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="14.25" customHeight="1">
       <c r="A118" s="5" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="14.25" customHeight="1">
       <c r="A119" s="5" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>349</v>
+        <v>1041</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="14.25" customHeight="1">
       <c r="A120" s="5" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>7</v>
@@ -5538,1616 +5548,1616 @@
     </row>
     <row r="121" spans="1:4" ht="14.25" customHeight="1">
       <c r="A121" s="5" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="14.25" customHeight="1">
       <c r="A122" s="5" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>357</v>
+        <v>1037</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="14.25" customHeight="1">
       <c r="A123" s="5" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="14.25" customHeight="1">
       <c r="A124" s="5" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="14.25" customHeight="1">
       <c r="A125" s="5" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="8"/>
     </row>
     <row r="126" spans="1:4" ht="14.25" customHeight="1">
       <c r="A126" s="5" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>368</v>
+        <v>1040</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="14.25" customHeight="1">
       <c r="A127" s="5" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="8"/>
     </row>
     <row r="128" spans="1:4" ht="14.25" customHeight="1">
       <c r="A128" s="5" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>372</v>
+        <v>1036</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="14.25" customHeight="1">
       <c r="A129" s="5" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="14.25" customHeight="1">
       <c r="A130" s="5" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="14.25" customHeight="1">
       <c r="A131" s="5" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="14.25" customHeight="1">
       <c r="A132" s="5" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="8"/>
     </row>
     <row r="133" spans="1:4" ht="14.25" customHeight="1">
       <c r="A133" s="5" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>385</v>
+        <v>1042</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="14.25" customHeight="1">
       <c r="A134" s="10" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="14.25" customHeight="1">
       <c r="A135" s="5" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>392</v>
+        <v>1043</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="14.25" customHeight="1">
       <c r="A136" s="5" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>395</v>
+        <v>1044</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="14.25" customHeight="1">
       <c r="A137" s="5" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="14.25" customHeight="1">
       <c r="A138" s="5" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="14.25" customHeight="1">
       <c r="A139" s="5" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="14.25" customHeight="1">
       <c r="A140" s="5" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="14.25" customHeight="1">
       <c r="A141" s="5" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="14.25" customHeight="1">
       <c r="A142" s="5" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="14.25" customHeight="1">
       <c r="A143" s="5" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="14.25" customHeight="1">
       <c r="A144" s="5" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="14.25" customHeight="1">
       <c r="A145" s="5" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="14.25" customHeight="1">
       <c r="A146" s="5" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="14.25" customHeight="1">
       <c r="A147" s="5" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="14.25" customHeight="1">
       <c r="A148" s="5" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>428</v>
+        <v>1083</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="14.25" customHeight="1">
       <c r="A149" s="14" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="C149" s="38" t="str">
         <f>_xlfn.XLOOKUP(A149,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>2025210BLEFA/</v>
-      </c>
-      <c r="D149" s="40" t="str">
+        <v>2025210BLEFA</v>
+      </c>
+      <c r="D149" s="39" t="str">
         <f>_xlfn.XLOOKUP(A149,Kits!$C:$C,Kits!$F:$F)</f>
         <v>02/27</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="14.25" customHeight="1">
       <c r="A150" s="15" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="C150" s="38" t="str">
         <f>_xlfn.XLOOKUP(A150,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>20241609BLEFL/</v>
-      </c>
-      <c r="D150" s="40" t="str">
+        <v>20241609BLEFL</v>
+      </c>
+      <c r="D150" s="39" t="str">
         <f>_xlfn.XLOOKUP(A150,Kits!$C:$C,Kits!$F:$F)</f>
         <v>09/26</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="14.25" customHeight="1">
       <c r="A151" s="18" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="C151" s="38" t="str">
         <f>_xlfn.XLOOKUP(A151,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>20252207BLEMA/</v>
-      </c>
-      <c r="D151" s="40" t="str">
+        <v>20252207BLEMA</v>
+      </c>
+      <c r="D151" s="39" t="str">
         <f>_xlfn.XLOOKUP(A151,Kits!$C:$C,Kits!$F:$F)</f>
         <v>07/27</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="14.25" customHeight="1">
       <c r="A152" s="14" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="C152" s="38" t="str">
         <f>_xlfn.XLOOKUP(A152,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>20252602BLESR/</v>
-      </c>
-      <c r="D152" s="40" t="str">
+        <v>20252602BLESR</v>
+      </c>
+      <c r="D152" s="39" t="str">
         <f>_xlfn.XLOOKUP(A152,Kits!$C:$C,Kits!$F:$F)</f>
         <v>02/27</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="14.25" customHeight="1">
       <c r="A153" s="14" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="C153" s="38" t="str">
         <f>_xlfn.XLOOKUP(A153,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>OLFA2508/</v>
-      </c>
-      <c r="D153" s="40" t="str">
+        <v>OLFA2508</v>
+      </c>
+      <c r="D153" s="39" t="str">
         <f>_xlfn.XLOOKUP(A153,Kits!$C:$C,Kits!$F:$F)</f>
         <v>08/27</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="14.25" customHeight="1">
       <c r="A154" s="14" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="C154" s="38" t="str">
         <f>_xlfn.XLOOKUP(A154,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>OLFL2508/</v>
-      </c>
-      <c r="D154" s="40" t="str">
+        <v>OLFL2510</v>
+      </c>
+      <c r="D154" s="39" t="str">
         <f>_xlfn.XLOOKUP(A154,Kits!$C:$C,Kits!$F:$F)</f>
-        <v>08/27</v>
+        <v>10/27</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="14.25" customHeight="1">
       <c r="A155" s="14" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="C155" s="38" t="str">
         <f>_xlfn.XLOOKUP(A155,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>OLIN2508/</v>
-      </c>
-      <c r="D155" s="40" t="str">
+        <v>OLIN2508</v>
+      </c>
+      <c r="D155" s="39" t="str">
         <f>_xlfn.XLOOKUP(A155,Kits!$C:$C,Kits!$F:$F)</f>
         <v>08/27</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="14.25" customHeight="1">
       <c r="A156" s="14" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="C156" s="38" t="str">
         <f>_xlfn.XLOOKUP(A156,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>OLLA2507/</v>
-      </c>
-      <c r="D156" s="40" t="str">
+        <v>OLLA2507</v>
+      </c>
+      <c r="D156" s="39" t="str">
         <f>_xlfn.XLOOKUP(A156,Kits!$C:$C,Kits!$F:$F)</f>
         <v>07/27</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="14.25" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="C157" s="38" t="str">
         <f>_xlfn.XLOOKUP(A157,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>OLMP2509/</v>
-      </c>
-      <c r="D157" s="40" t="str">
+        <v>OLMP2509</v>
+      </c>
+      <c r="D157" s="39" t="str">
         <f>_xlfn.XLOOKUP(A157,Kits!$C:$C,Kits!$F:$F)</f>
         <v>09/27</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="14.25" customHeight="1">
       <c r="A158" s="14" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="C158" s="38" t="str">
         <f>_xlfn.XLOOKUP(A158,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>OLMC2509/</v>
-      </c>
-      <c r="D158" s="40" t="str">
+        <v>OLMC2509</v>
+      </c>
+      <c r="D158" s="39" t="str">
         <f>_xlfn.XLOOKUP(A158,Kits!$C:$C,Kits!$F:$F)</f>
         <v>09/27</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="14.25" customHeight="1">
       <c r="A159" s="14" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="C159" s="38" t="str">
         <f>_xlfn.XLOOKUP(A159,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>OLPV2509/</v>
-      </c>
-      <c r="D159" s="40" t="str">
+        <v>OLPV2510</v>
+      </c>
+      <c r="D159" s="39" t="str">
         <f>_xlfn.XLOOKUP(A159,Kits!$C:$C,Kits!$F:$F)</f>
-        <v>09/27</v>
+        <v>10/27</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="14.25" customHeight="1">
       <c r="A160" s="14" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="C160" s="38" t="str">
         <f>_xlfn.XLOOKUP(A160,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>OLSR2508/</v>
-      </c>
-      <c r="D160" s="40" t="str">
+        <v>OLSR2508</v>
+      </c>
+      <c r="D160" s="39" t="str">
         <f>_xlfn.XLOOKUP(A160,Kits!$C:$C,Kits!$F:$F)</f>
         <v>08/27</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="14.25" customHeight="1">
       <c r="A161" s="5" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="14.25" customHeight="1">
       <c r="A162" s="5" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>458</v>
+        <v>1081</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>459</v>
+        <v>564</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="14.25" customHeight="1">
       <c r="A163" s="5" t="s">
-        <v>460</v>
+        <v>421</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>462</v>
+        <v>1082</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="14.25" customHeight="1">
       <c r="A164" s="15" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="14.25" customHeight="1">
       <c r="A165" s="14" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="C165" s="38" t="str">
         <f>_xlfn.XLOOKUP(A165,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>2025210BLEFA/</v>
-      </c>
-      <c r="D165" s="40" t="str">
+        <v>2025210BLEFA</v>
+      </c>
+      <c r="D165" s="39" t="str">
         <f>_xlfn.XLOOKUP(A165,Kits!$C:$C,Kits!$F:$F)</f>
         <v>02/27</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="14.25" customHeight="1">
       <c r="A166" s="15" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="C166" s="38" t="str">
         <f>_xlfn.XLOOKUP(A166,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>20241609BLEFL/</v>
-      </c>
-      <c r="D166" s="40" t="str">
+        <v>20241609BLEFL</v>
+      </c>
+      <c r="D166" s="39" t="str">
         <f>_xlfn.XLOOKUP(A166,Kits!$C:$C,Kits!$F:$F)</f>
         <v>09/26</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="14.25" customHeight="1">
       <c r="A167" s="14" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="C167" s="38" t="str">
         <f>_xlfn.XLOOKUP(A167,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>20252207BLEMA/</v>
-      </c>
-      <c r="D167" s="40" t="str">
+        <v>20252207BLEMA</v>
+      </c>
+      <c r="D167" s="39" t="str">
         <f>_xlfn.XLOOKUP(A167,Kits!$C:$C,Kits!$F:$F)</f>
         <v>07/27</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="14.25" customHeight="1">
       <c r="A168" s="18" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="C168" s="38" t="str">
         <f>_xlfn.XLOOKUP(A168,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>20252207BLEMA/</v>
-      </c>
-      <c r="D168" s="40" t="str">
+        <v>20252207BLEMA</v>
+      </c>
+      <c r="D168" s="39" t="str">
         <f>_xlfn.XLOOKUP(A168,Kits!$C:$C,Kits!$F:$F)</f>
         <v>07/27</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="14.25" customHeight="1">
       <c r="A169" s="14" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="D169" s="40" t="str">
+        <v>435</v>
+      </c>
+      <c r="D169" s="39" t="str">
         <f>_xlfn.XLOOKUP(A169,Kits!$C:$C,Kits!$F:$F)</f>
-        <v>09/28</v>
+        <v>10/28</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="14.25" customHeight="1">
       <c r="A170" s="14" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="C170" s="38" t="str">
         <f>_xlfn.XLOOKUP(A170,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>E2004/H2161</v>
-      </c>
-      <c r="D170" s="40" t="str">
+        <v>J2304/J2267</v>
+      </c>
+      <c r="D170" s="39" t="str">
         <f>_xlfn.XLOOKUP(A170,Kits!$C:$C,Kits!$F:$F)</f>
-        <v>09/28</v>
+        <v>10/28</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="14.25" customHeight="1">
       <c r="A171" s="5" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="14.25" customHeight="1">
       <c r="A172" s="15" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="C172" s="38" t="str">
         <f>_xlfn.XLOOKUP(A172,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>20240601BLEPE/</v>
-      </c>
-      <c r="D172" s="40" t="str">
+        <v>20240601BLEPE</v>
+      </c>
+      <c r="D172" s="39" t="str">
         <f>_xlfn.XLOOKUP(A172,Kits!$C:$C,Kits!$F:$F)</f>
         <v>06/26</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="14.25" customHeight="1">
       <c r="A173" s="14" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="C173" s="38" t="str">
         <f>_xlfn.XLOOKUP(A173,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>240105/</v>
-      </c>
-      <c r="D173" s="40" t="str">
+        <v>240105</v>
+      </c>
+      <c r="D173" s="39" t="str">
         <f>_xlfn.XLOOKUP(A173,Kits!$C:$C,Kits!$F:$F)</f>
         <v>11/27</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="14.25" customHeight="1">
       <c r="A174" s="14" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="14.25" customHeight="1">
       <c r="A175" s="14" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="C175" s="38" t="str">
         <f>_xlfn.XLOOKUP(A175,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>240205/</v>
-      </c>
-      <c r="D175" s="40" t="str">
+        <v>240205</v>
+      </c>
+      <c r="D175" s="39" t="str">
         <f>_xlfn.XLOOKUP(A175,Kits!$C:$C,Kits!$F:$F)</f>
         <v>10/27</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="14.25" customHeight="1">
       <c r="A176" s="14" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="C176" s="38" t="str">
         <f>_xlfn.XLOOKUP(A176,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>240204/</v>
-      </c>
-      <c r="D176" s="40" t="str">
+        <v>240204</v>
+      </c>
+      <c r="D176" s="39" t="str">
         <f>_xlfn.XLOOKUP(A176,Kits!$C:$C,Kits!$F:$F)</f>
         <v>09/27</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="14.25" customHeight="1">
       <c r="A177" s="21" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="C177" s="38" t="str">
         <f>_xlfn.XLOOKUP(A177,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>240303/</v>
-      </c>
-      <c r="D177" s="40" t="str">
+        <v>240303</v>
+      </c>
+      <c r="D177" s="39" t="str">
         <f>_xlfn.XLOOKUP(A177,Kits!$C:$C,Kits!$F:$F)</f>
         <v>08/28</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="14.25" customHeight="1">
       <c r="A178" s="14" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="C178" s="38" t="str">
         <f>_xlfn.XLOOKUP(A178,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>250302/</v>
-      </c>
-      <c r="D178" s="40" t="str">
+        <v>250302</v>
+      </c>
+      <c r="D178" s="39" t="str">
         <f>_xlfn.XLOOKUP(A178,Kits!$C:$C,Kits!$F:$F)</f>
         <v>07/28</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="14.25" customHeight="1">
       <c r="A179" s="14" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="C179" s="38" t="str">
         <f>_xlfn.XLOOKUP(A179,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>250601/</v>
-      </c>
-      <c r="D179" s="40" t="str">
+        <v>LEN89.0005</v>
+      </c>
+      <c r="D179" s="39" t="str">
         <f>_xlfn.XLOOKUP(A179,Kits!$C:$C,Kits!$F:$F)</f>
-        <v>03/28</v>
+        <v>10/28</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="14.25" customHeight="1">
       <c r="A180" s="5" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="14.25" customHeight="1">
       <c r="A181" s="14" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="C181" s="38" t="str">
         <f>_xlfn.XLOOKUP(A181,Kits!$C:$C,Kits!$E:$E)</f>
-        <v>20252602BLESR/</v>
-      </c>
-      <c r="D181" s="40" t="str">
+        <v>20252602BLESR</v>
+      </c>
+      <c r="D181" s="39" t="str">
         <f>_xlfn.XLOOKUP(A181,Kits!$C:$C,Kits!$F:$F)</f>
         <v>02/27</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="14.25" customHeight="1">
       <c r="A182" s="5" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>504</v>
+        <v>1098</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="14.25" customHeight="1">
       <c r="A183" s="5" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>509</v>
+        <v>468</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="14.25" customHeight="1">
       <c r="A184" s="5" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>511</v>
+        <v>470</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>512</v>
+        <v>471</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="14.25" customHeight="1">
       <c r="A185" s="5" t="s">
-        <v>513</v>
+        <v>472</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>514</v>
+        <v>473</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>515</v>
+        <v>1097</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>361</v>
+        <v>564</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="14.25" customHeight="1">
       <c r="A186" s="5" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="14.25" customHeight="1">
       <c r="A187" s="5" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="14.25" customHeight="1">
       <c r="A188" s="5" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>524</v>
+        <v>482</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="14.25" customHeight="1">
       <c r="A189" s="5" t="s">
-        <v>525</v>
+        <v>483</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>526</v>
+        <v>484</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>527</v>
+        <v>485</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="14.25" customHeight="1">
       <c r="A190" s="5" t="s">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>529</v>
+        <v>487</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>530</v>
+        <v>488</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="14.25" customHeight="1">
       <c r="A191" s="5" t="s">
-        <v>531</v>
+        <v>489</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>529</v>
+        <v>487</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="8"/>
     </row>
     <row r="192" spans="1:4" ht="14.25" customHeight="1">
       <c r="A192" s="5" t="s">
-        <v>532</v>
+        <v>490</v>
       </c>
       <c r="B192" s="22" t="s">
-        <v>533</v>
+        <v>491</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>534</v>
+        <v>1100</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="14.25" customHeight="1">
       <c r="A193" s="10" t="s">
-        <v>535</v>
+        <v>492</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>536</v>
+        <v>493</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>537</v>
+        <v>1099</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="14.25" customHeight="1">
       <c r="A194" s="5" t="s">
-        <v>538</v>
+        <v>494</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>540</v>
+        <v>496</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="14.25" customHeight="1">
       <c r="A195" s="5" t="s">
-        <v>541</v>
+        <v>497</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>542</v>
+        <v>498</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>543</v>
+        <v>1086</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="14.25" customHeight="1">
       <c r="A196" s="5" t="s">
-        <v>544</v>
+        <v>499</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>545</v>
+        <v>500</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>546</v>
+        <v>501</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="14.25" customHeight="1">
       <c r="A197" s="5" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>548</v>
+        <v>503</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="14.25" customHeight="1">
       <c r="A198" s="5" t="s">
-        <v>549</v>
+        <v>504</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>551</v>
+        <v>1088</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>299</v>
+        <v>51</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="14.25" customHeight="1">
       <c r="A199" s="5" t="s">
-        <v>552</v>
+        <v>506</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>553</v>
+        <v>507</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="14.25" customHeight="1">
       <c r="A200" s="5" t="s">
-        <v>554</v>
+        <v>508</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>556</v>
+        <v>510</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="14.25" customHeight="1">
       <c r="A201" s="5" t="s">
-        <v>557</v>
+        <v>511</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>558</v>
+        <v>512</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="14.25" customHeight="1">
       <c r="A202" s="5" t="s">
-        <v>559</v>
+        <v>513</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>560</v>
+        <v>514</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>561</v>
+        <v>515</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="14.25" customHeight="1">
       <c r="A203" s="10" t="s">
-        <v>562</v>
+        <v>516</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>563</v>
+        <v>517</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>564</v>
+        <v>518</v>
       </c>
       <c r="D203" s="13" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="14.25" customHeight="1">
       <c r="A204" s="5" t="s">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>567</v>
+        <v>1084</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="14.25" customHeight="1">
       <c r="A205" s="5" t="s">
-        <v>568</v>
+        <v>521</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>569</v>
+        <v>522</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>570</v>
+        <v>523</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="14.25" customHeight="1">
       <c r="A206" s="5" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>572</v>
+        <v>525</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="14.25" customHeight="1">
       <c r="A207" s="5" t="s">
-        <v>574</v>
+        <v>527</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>576</v>
+        <v>1089</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="14.25" customHeight="1">
       <c r="A208" s="5" t="s">
-        <v>577</v>
+        <v>530</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>578</v>
+        <v>531</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="14.25" customHeight="1">
       <c r="A209" s="5" t="s">
-        <v>579</v>
+        <v>532</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="14.25" customHeight="1">
       <c r="A210" s="5" t="s">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>583</v>
+        <v>1091</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>108</v>
+        <v>564</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="14.25" customHeight="1">
       <c r="A211" s="5" t="s">
-        <v>584</v>
+        <v>536</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>585</v>
+        <v>537</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>570</v>
+        <v>523</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="14.25" customHeight="1">
       <c r="A212" s="10" t="s">
-        <v>586</v>
+        <v>538</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>587</v>
+        <v>539</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>588</v>
+        <v>540</v>
       </c>
       <c r="D212" s="13" t="s">
-        <v>589</v>
+        <v>541</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="14.25" customHeight="1">
       <c r="A213" s="5" t="s">
-        <v>590</v>
+        <v>542</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>591</v>
+        <v>543</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="14.25" customHeight="1">
       <c r="A214" s="5" t="s">
-        <v>592</v>
+        <v>544</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>593</v>
+        <v>545</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>594</v>
+        <v>1087</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="14.25" customHeight="1">
       <c r="A215" s="5" t="s">
-        <v>595</v>
+        <v>546</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>596</v>
+        <v>547</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>597</v>
+        <v>548</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="14.25" customHeight="1">
       <c r="A216" s="5" t="s">
-        <v>598</v>
+        <v>549</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>599</v>
+        <v>550</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>600</v>
+        <v>1090</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="14.25" customHeight="1">
       <c r="A217" s="5" t="s">
-        <v>601</v>
+        <v>551</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>603</v>
+        <v>553</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="14.25" customHeight="1">
       <c r="A218" s="5" t="s">
-        <v>604</v>
+        <v>554</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>605</v>
+        <v>555</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>606</v>
+        <v>1092</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>108</v>
+        <v>564</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="14.25" customHeight="1">
       <c r="A219" s="5" t="s">
-        <v>607</v>
+        <v>556</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>608</v>
+        <v>557</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>609</v>
+        <v>558</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="14.25" customHeight="1">
       <c r="A220" s="5" t="s">
-        <v>610</v>
+        <v>559</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>611</v>
+        <v>560</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>612</v>
+        <v>1085</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="14.25" customHeight="1">
       <c r="A221" s="5" t="s">
-        <v>613</v>
+        <v>561</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>614</v>
+        <v>562</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>615</v>
+        <v>563</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>616</v>
+        <v>564</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="14.25" customHeight="1">
       <c r="A222" s="5" t="s">
-        <v>617</v>
+        <v>565</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>618</v>
+        <v>566</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>619</v>
+        <v>567</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="14.25" customHeight="1">
       <c r="A223" s="5" t="s">
-        <v>620</v>
+        <v>568</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>621</v>
+        <v>569</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>622</v>
+        <v>1095</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>26</v>
+        <v>271</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="14.25" customHeight="1">
       <c r="A224" s="5" t="s">
-        <v>623</v>
+        <v>570</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>624</v>
+        <v>571</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>625</v>
+        <v>1094</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="14.25" customHeight="1">
       <c r="A225" s="5" t="s">
-        <v>626</v>
+        <v>572</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>627</v>
+        <v>573</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>628</v>
+        <v>574</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="14.25" customHeight="1">
       <c r="A226" s="5" t="s">
-        <v>629</v>
+        <v>575</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>630</v>
+        <v>576</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="14.25" customHeight="1">
       <c r="A227" s="5" t="s">
-        <v>631</v>
+        <v>577</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>632</v>
+        <v>578</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>633</v>
+        <v>579</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="14.25" customHeight="1">
       <c r="A228" s="5" t="s">
-        <v>634</v>
+        <v>580</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>635</v>
+        <v>581</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="14.25" customHeight="1">
       <c r="A229" s="5" t="s">
-        <v>636</v>
+        <v>582</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>637</v>
+        <v>583</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>638</v>
+        <v>1096</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="14.25" customHeight="1">
       <c r="A230" s="5" t="s">
-        <v>639</v>
+        <v>584</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>640</v>
+        <v>585</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>641</v>
+        <v>1093</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>108</v>
+        <v>564</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="14.25" customHeight="1">
       <c r="A231" s="5" t="s">
-        <v>642</v>
+        <v>586</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>643</v>
+        <v>587</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>644</v>
+        <v>588</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="14.25" customHeight="1">
       <c r="A232" s="5" t="s">
-        <v>645</v>
+        <v>589</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>646</v>
+        <v>590</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>647</v>
+        <v>591</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="14.25" customHeight="1">
       <c r="A233" s="5" t="s">
-        <v>648</v>
+        <v>592</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>649</v>
+        <v>593</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>650</v>
+        <v>594</v>
       </c>
       <c r="D233" s="8" t="s">
         <v>7</v>
@@ -7155,83 +7165,83 @@
     </row>
     <row r="234" spans="1:4" ht="14.25" customHeight="1">
       <c r="A234" s="5" t="s">
-        <v>651</v>
+        <v>595</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>652</v>
+        <v>596</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>653</v>
+        <v>1027</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="14.25" customHeight="1">
       <c r="A235" s="5" t="s">
-        <v>654</v>
+        <v>597</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>655</v>
+        <v>598</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="14.25" customHeight="1">
       <c r="A236" s="5" t="s">
-        <v>656</v>
+        <v>599</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>657</v>
+        <v>600</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="14.25" customHeight="1">
       <c r="A237" s="5" t="s">
-        <v>658</v>
+        <v>601</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>659</v>
+        <v>602</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>660</v>
+        <v>1050</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="14.25" customHeight="1">
       <c r="A238" s="5" t="s">
-        <v>661</v>
+        <v>603</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>662</v>
+        <v>604</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="14.25" customHeight="1">
       <c r="A239" s="5" t="s">
-        <v>663</v>
+        <v>605</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>664</v>
+        <v>606</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>665</v>
+        <v>607</v>
       </c>
       <c r="D239" s="8" t="s">
         <v>7</v>
@@ -7239,41 +7249,41 @@
     </row>
     <row r="240" spans="1:4" ht="14.25" customHeight="1">
       <c r="A240" s="5" t="s">
-        <v>666</v>
+        <v>608</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>667</v>
+        <v>609</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>668</v>
+        <v>1049</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="14.25" customHeight="1">
       <c r="A241" s="5" t="s">
-        <v>669</v>
+        <v>610</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>670</v>
+        <v>611</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>671</v>
+        <v>612</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="14.25" customHeight="1">
       <c r="A242" s="5" t="s">
-        <v>672</v>
+        <v>613</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>673</v>
+        <v>614</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D242" s="8" t="s">
         <v>7</v>
@@ -7281,125 +7291,125 @@
     </row>
     <row r="243" spans="1:4" ht="14.25" customHeight="1">
       <c r="A243" s="5" t="s">
-        <v>674</v>
+        <v>615</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>675</v>
+        <v>616</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="14.25" customHeight="1">
       <c r="A244" s="5" t="s">
-        <v>676</v>
+        <v>617</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>677</v>
+        <v>618</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>678</v>
+        <v>619</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="14.25" customHeight="1">
       <c r="A245" s="5" t="s">
-        <v>679</v>
+        <v>620</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>680</v>
+        <v>621</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>681</v>
+        <v>622</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="14.25" customHeight="1">
       <c r="A246" s="5" t="s">
-        <v>682</v>
+        <v>623</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>683</v>
+        <v>624</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>684</v>
+        <v>625</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="14.25" customHeight="1">
       <c r="A247" s="5" t="s">
-        <v>685</v>
+        <v>626</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>686</v>
+        <v>627</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>687</v>
+        <v>1051</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="14.25" customHeight="1">
       <c r="A248" s="5" t="s">
-        <v>688</v>
+        <v>628</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>689</v>
+        <v>629</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>690</v>
+        <v>630</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="14.25" customHeight="1">
       <c r="A249" s="5" t="s">
-        <v>691</v>
+        <v>631</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>692</v>
+        <v>632</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>693</v>
+        <v>633</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="14.25" customHeight="1">
       <c r="A250" s="5" t="s">
-        <v>694</v>
+        <v>634</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>695</v>
+        <v>635</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="14.25" customHeight="1">
       <c r="A251" s="5" t="s">
-        <v>697</v>
+        <v>637</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>699</v>
+        <v>639</v>
       </c>
       <c r="D251" s="8" t="s">
         <v>7</v>
@@ -7407,405 +7417,405 @@
     </row>
     <row r="252" spans="1:4" ht="14.25" customHeight="1">
       <c r="A252" s="5" t="s">
-        <v>700</v>
+        <v>640</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>701</v>
+        <v>641</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="14.25" customHeight="1">
       <c r="A253" s="5" t="s">
-        <v>702</v>
+        <v>642</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>703</v>
+        <v>643</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="14.25" customHeight="1">
       <c r="A254" s="5" t="s">
-        <v>704</v>
+        <v>644</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>705</v>
+        <v>645</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>706</v>
+        <v>646</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="14.25" customHeight="1">
       <c r="A255" s="5" t="s">
-        <v>707</v>
+        <v>647</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>708</v>
+        <v>648</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="14.25" customHeight="1">
       <c r="A256" s="5" t="s">
-        <v>709</v>
+        <v>649</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>710</v>
+        <v>650</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>711</v>
+        <v>1046</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="14.25" customHeight="1">
       <c r="A257" s="5" t="s">
-        <v>712</v>
+        <v>651</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>713</v>
+        <v>652</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>714</v>
+        <v>1048</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="14.25" customHeight="1">
       <c r="A258" s="5" t="s">
-        <v>715</v>
+        <v>653</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>716</v>
+        <v>654</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>717</v>
+        <v>1047</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="14.25" customHeight="1">
       <c r="A259" s="5" t="s">
-        <v>718</v>
+        <v>655</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>719</v>
+        <v>656</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>720</v>
+        <v>657</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="14.25" customHeight="1">
       <c r="A260" s="5" t="s">
-        <v>721</v>
+        <v>658</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>722</v>
+        <v>659</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>723</v>
+        <v>1063</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="14.25" customHeight="1">
       <c r="A261" s="5" t="s">
-        <v>724</v>
+        <v>660</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>725</v>
+        <v>661</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>726</v>
+        <v>1064</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="14.25" customHeight="1">
       <c r="A262" s="5" t="s">
-        <v>727</v>
+        <v>662</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>728</v>
+        <v>663</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>729</v>
+        <v>664</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="14.25" customHeight="1">
       <c r="A263" s="5" t="s">
-        <v>730</v>
+        <v>665</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>731</v>
+        <v>666</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>732</v>
+        <v>1027</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="14.25" customHeight="1">
       <c r="A264" s="5" t="s">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>734</v>
+        <v>668</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>735</v>
+        <v>669</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="14.25" customHeight="1">
       <c r="A265" s="5" t="s">
-        <v>736</v>
+        <v>670</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>737</v>
+        <v>671</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>738</v>
+        <v>771</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="14.25" customHeight="1">
       <c r="A266" s="5" t="s">
-        <v>739</v>
+        <v>672</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>740</v>
+        <v>673</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>741</v>
+        <v>1065</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>281</v>
+        <v>51</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="14.25" customHeight="1">
       <c r="A267" s="5" t="s">
-        <v>742</v>
+        <v>674</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>743</v>
+        <v>675</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>744</v>
+        <v>676</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="14.25" customHeight="1">
       <c r="A268" s="5" t="s">
-        <v>745</v>
+        <v>677</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>746</v>
+        <v>678</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>747</v>
+        <v>679</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="14.25" customHeight="1">
       <c r="A269" s="5" t="s">
-        <v>748</v>
+        <v>680</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>749</v>
+        <v>681</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>750</v>
+        <v>1026</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="14.25" customHeight="1">
       <c r="A270" s="5" t="s">
-        <v>751</v>
+        <v>682</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>752</v>
+        <v>683</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>753</v>
+        <v>684</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="14.25" customHeight="1">
       <c r="A271" s="5" t="s">
-        <v>754</v>
+        <v>685</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>755</v>
+        <v>686</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>756</v>
+        <v>687</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="14.25" customHeight="1">
       <c r="A272" s="5" t="s">
-        <v>757</v>
+        <v>688</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>758</v>
+        <v>689</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>759</v>
+        <v>690</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="14.25" customHeight="1">
       <c r="A273" s="5" t="s">
-        <v>760</v>
+        <v>691</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>761</v>
+        <v>692</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>762</v>
+        <v>1011</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="14.25" customHeight="1">
       <c r="A274" s="5" t="s">
-        <v>763</v>
+        <v>693</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>764</v>
+        <v>694</v>
       </c>
       <c r="C274" s="9" t="s">
-        <v>765</v>
+        <v>1030</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="14.25" customHeight="1">
       <c r="A275" s="5" t="s">
-        <v>766</v>
+        <v>695</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>767</v>
+        <v>696</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>768</v>
+        <v>697</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="14.25" customHeight="1">
       <c r="A276" s="5" t="s">
-        <v>769</v>
+        <v>698</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>770</v>
+        <v>699</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>771</v>
+        <v>700</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="14.25" customHeight="1">
       <c r="A277" s="5" t="s">
-        <v>772</v>
+        <v>701</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>773</v>
+        <v>702</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>774</v>
+        <v>703</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="14.25" customHeight="1">
       <c r="A278" s="5" t="s">
-        <v>775</v>
+        <v>704</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>776</v>
+        <v>705</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>777</v>
+        <v>706</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="14.25" customHeight="1">
       <c r="A279" s="5" t="s">
-        <v>778</v>
+        <v>707</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>779</v>
+        <v>708</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="14.25" customHeight="1">
       <c r="A280" s="5" t="s">
-        <v>780</v>
+        <v>709</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>781</v>
+        <v>710</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>782</v>
+        <v>711</v>
       </c>
       <c r="D280" s="8" t="s">
         <v>7</v>
@@ -7813,996 +7823,996 @@
     </row>
     <row r="281" spans="1:4" ht="14.25" customHeight="1">
       <c r="A281" s="5" t="s">
-        <v>783</v>
+        <v>712</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>784</v>
+        <v>713</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="14.25" customHeight="1">
       <c r="A282" s="5" t="s">
-        <v>785</v>
+        <v>714</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>786</v>
+        <v>715</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>787</v>
+        <v>1029</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="14.25" customHeight="1">
       <c r="A283" s="5" t="s">
-        <v>788</v>
+        <v>716</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>789</v>
+        <v>717</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>790</v>
+        <v>718</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="14.25" customHeight="1">
       <c r="A284" s="5" t="s">
-        <v>791</v>
+        <v>719</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>792</v>
+        <v>720</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>793</v>
+        <v>721</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="14.25" customHeight="1">
       <c r="A285" s="5" t="s">
-        <v>794</v>
+        <v>722</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>795</v>
+        <v>723</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>796</v>
+        <v>724</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="14.25" customHeight="1">
       <c r="A286" s="5" t="s">
-        <v>797</v>
+        <v>725</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>798</v>
+        <v>726</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>799</v>
+        <v>727</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="14.25" customHeight="1">
       <c r="A287" s="5" t="s">
-        <v>800</v>
+        <v>728</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>801</v>
+        <v>729</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>802</v>
+        <v>730</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="14.25" customHeight="1">
       <c r="A288" s="5" t="s">
-        <v>803</v>
+        <v>731</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>804</v>
+        <v>732</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="14.25" customHeight="1">
       <c r="A289" s="5" t="s">
-        <v>805</v>
+        <v>733</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>806</v>
+        <v>734</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>807</v>
+        <v>1027</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="14.25" customHeight="1">
       <c r="A290" s="5" t="s">
-        <v>808</v>
+        <v>735</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>809</v>
+        <v>736</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="14.25" customHeight="1">
       <c r="A291" s="5" t="s">
-        <v>810</v>
+        <v>737</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>811</v>
+        <v>738</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="14.25" customHeight="1">
       <c r="A292" s="5" t="s">
-        <v>812</v>
+        <v>739</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>813</v>
+        <v>740</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>814</v>
+        <v>741</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="14.25" customHeight="1">
       <c r="A293" s="5" t="s">
-        <v>815</v>
+        <v>742</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>816</v>
+        <v>743</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>817</v>
+        <v>744</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="14.25" customHeight="1">
       <c r="A294" s="5" t="s">
-        <v>818</v>
+        <v>745</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>819</v>
+        <v>746</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>820</v>
+        <v>747</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="14.25" customHeight="1">
       <c r="A295" s="5" t="s">
-        <v>821</v>
+        <v>748</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>822</v>
+        <v>749</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>823</v>
+        <v>1028</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="14.25" customHeight="1">
       <c r="A296" s="5" t="s">
-        <v>824</v>
+        <v>750</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>825</v>
+        <v>751</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>826</v>
+        <v>752</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="14.25" customHeight="1">
       <c r="A297" s="5" t="s">
-        <v>827</v>
+        <v>753</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>828</v>
+        <v>754</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>829</v>
+        <v>1033</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="14.25" customHeight="1">
       <c r="A298" s="5" t="s">
-        <v>830</v>
+        <v>755</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>831</v>
+        <v>756</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>832</v>
+        <v>1033</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="14.25" customHeight="1">
       <c r="A299" s="5" t="s">
-        <v>833</v>
+        <v>757</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>834</v>
+        <v>758</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="14.25" customHeight="1">
       <c r="A300" s="5" t="s">
-        <v>835</v>
+        <v>759</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>836</v>
+        <v>760</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>837</v>
+        <v>761</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="14.25" customHeight="1">
       <c r="A301" s="10" t="s">
-        <v>838</v>
+        <v>762</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>839</v>
+        <v>763</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>840</v>
+        <v>764</v>
       </c>
       <c r="D301" s="13" t="s">
-        <v>841</v>
+        <v>765</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="14.25" customHeight="1">
       <c r="A302" s="5" t="s">
-        <v>842</v>
+        <v>766</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>843</v>
+        <v>767</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>844</v>
+        <v>768</v>
       </c>
       <c r="D302" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="14.25" customHeight="1">
       <c r="A303" s="5" t="s">
-        <v>845</v>
+        <v>769</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>846</v>
+        <v>770</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>847</v>
+        <v>771</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="14.25" customHeight="1">
       <c r="A304" s="5" t="s">
-        <v>848</v>
+        <v>772</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>849</v>
+        <v>773</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>850</v>
+        <v>774</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="14.25" customHeight="1">
       <c r="A305" s="5" t="s">
-        <v>851</v>
+        <v>775</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>852</v>
+        <v>776</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>853</v>
+        <v>777</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="14.25" customHeight="1">
       <c r="A306" s="5" t="s">
-        <v>854</v>
+        <v>778</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>855</v>
+        <v>779</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>856</v>
+        <v>780</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="14.25" customHeight="1">
       <c r="A307" s="5" t="s">
-        <v>857</v>
+        <v>781</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>858</v>
+        <v>782</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>859</v>
+        <v>783</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="14.25" customHeight="1">
       <c r="A308" s="10" t="s">
-        <v>860</v>
+        <v>784</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>861</v>
+        <v>785</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>862</v>
+        <v>786</v>
       </c>
       <c r="D308" s="13" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="14.25" customHeight="1">
       <c r="A309" s="5" t="s">
-        <v>863</v>
+        <v>787</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>864</v>
+        <v>788</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>744</v>
+        <v>676</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>505</v>
+        <v>32</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="14.25" customHeight="1">
       <c r="A310" s="5" t="s">
-        <v>865</v>
+        <v>789</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>866</v>
+        <v>790</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>867</v>
+        <v>1034</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="14.25" customHeight="1">
       <c r="A311" s="5" t="s">
-        <v>868</v>
+        <v>791</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>869</v>
+        <v>792</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>870</v>
+        <v>793</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="14.25" customHeight="1">
       <c r="A312" s="5" t="s">
-        <v>871</v>
+        <v>794</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>872</v>
+        <v>795</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>873</v>
+        <v>796</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="14.25" customHeight="1">
       <c r="A313" s="5" t="s">
-        <v>874</v>
+        <v>797</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>875</v>
+        <v>798</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>876</v>
+        <v>799</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="14.25" customHeight="1">
       <c r="A314" s="5" t="s">
-        <v>877</v>
+        <v>800</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>878</v>
+        <v>801</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>879</v>
+        <v>679</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>299</v>
+        <v>420</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="14.25" customHeight="1">
       <c r="A315" s="5" t="s">
-        <v>880</v>
+        <v>802</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>881</v>
+        <v>803</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="14.25" customHeight="1">
       <c r="A316" s="5" t="s">
-        <v>882</v>
+        <v>804</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>883</v>
+        <v>805</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>884</v>
+        <v>806</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="14.25" customHeight="1">
       <c r="A317" s="5" t="s">
-        <v>885</v>
+        <v>807</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>886</v>
+        <v>808</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="14.25" customHeight="1">
       <c r="A318" s="5" t="s">
-        <v>887</v>
+        <v>809</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>888</v>
+        <v>810</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>889</v>
+        <v>811</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="14.25" customHeight="1">
       <c r="A319" s="5" t="s">
-        <v>890</v>
+        <v>812</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>891</v>
+        <v>813</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>892</v>
+        <v>1026</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="14.25" customHeight="1">
       <c r="A320" s="5" t="s">
-        <v>893</v>
+        <v>814</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>894</v>
+        <v>815</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>895</v>
+        <v>816</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="14.25" customHeight="1">
       <c r="A321" s="5" t="s">
-        <v>896</v>
+        <v>817</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>897</v>
+        <v>818</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>898</v>
+        <v>1010</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="14.25" customHeight="1">
       <c r="A322" s="5" t="s">
-        <v>899</v>
+        <v>819</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>900</v>
+        <v>820</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>901</v>
+        <v>821</v>
       </c>
       <c r="D322" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="14.25" customHeight="1">
       <c r="A323" s="5" t="s">
-        <v>902</v>
+        <v>822</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>903</v>
+        <v>823</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="14.25" customHeight="1">
       <c r="A324" s="5" t="s">
-        <v>904</v>
+        <v>824</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>905</v>
+        <v>825</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="14.25" customHeight="1">
       <c r="A325" s="5" t="s">
-        <v>906</v>
+        <v>826</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>907</v>
+        <v>827</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>908</v>
+        <v>828</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="14.25" customHeight="1">
       <c r="A326" s="5" t="s">
-        <v>909</v>
+        <v>829</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>910</v>
+        <v>830</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>911</v>
+        <v>831</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>616</v>
+        <v>564</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="14.25" customHeight="1">
       <c r="A327" s="5" t="s">
-        <v>912</v>
+        <v>832</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>913</v>
+        <v>833</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>914</v>
+        <v>834</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="14.25" customHeight="1">
       <c r="A328" s="5" t="s">
-        <v>915</v>
+        <v>835</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>916</v>
+        <v>836</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>917</v>
+        <v>837</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="14.25" customHeight="1">
       <c r="A329" s="5" t="s">
-        <v>918</v>
+        <v>838</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>919</v>
+        <v>839</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>920</v>
+        <v>840</v>
       </c>
       <c r="D329" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="14.25" customHeight="1">
       <c r="A330" s="5" t="s">
-        <v>921</v>
+        <v>841</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>922</v>
+        <v>842</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>923</v>
+        <v>843</v>
       </c>
       <c r="D330" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="14.25" customHeight="1">
       <c r="A331" s="5" t="s">
-        <v>924</v>
+        <v>844</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>925</v>
+        <v>845</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>926</v>
+        <v>1032</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="14.25" customHeight="1">
       <c r="A332" s="5" t="s">
-        <v>927</v>
+        <v>846</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>928</v>
+        <v>847</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>929</v>
+        <v>1031</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="14.25" customHeight="1">
       <c r="A333" s="5" t="s">
-        <v>930</v>
+        <v>848</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>931</v>
+        <v>849</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="14.25" customHeight="1">
       <c r="A334" s="5" t="s">
-        <v>932</v>
+        <v>850</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>933</v>
+        <v>851</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="D334" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="14.25" customHeight="1">
       <c r="A335" s="5" t="s">
-        <v>934</v>
+        <v>852</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>935</v>
+        <v>853</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="D335" s="8" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="14.25" customHeight="1">
       <c r="A336" s="5" t="s">
-        <v>936</v>
+        <v>854</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>937</v>
+        <v>855</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="14.25" customHeight="1">
       <c r="A337" s="5" t="s">
-        <v>938</v>
+        <v>856</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>939</v>
+        <v>857</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="D337" s="8" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="14.25" customHeight="1">
       <c r="A338" s="5" t="s">
-        <v>940</v>
+        <v>858</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>941</v>
+        <v>859</v>
       </c>
       <c r="C338" s="23" t="s">
-        <v>942</v>
+        <v>860</v>
       </c>
       <c r="D338" s="8" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="14.25" customHeight="1">
       <c r="A339" s="5" t="s">
-        <v>943</v>
+        <v>861</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>944</v>
+        <v>862</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="D339" s="8" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="14.25" customHeight="1">
       <c r="A340" s="5" t="s">
-        <v>945</v>
+        <v>863</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>946</v>
+        <v>864</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="D340" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="14.25" customHeight="1">
       <c r="A341" s="5" t="s">
-        <v>947</v>
+        <v>865</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>948</v>
+        <v>866</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="D341" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="14.25" customHeight="1">
       <c r="A342" s="5" t="s">
-        <v>949</v>
+        <v>867</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>950</v>
+        <v>868</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>951</v>
+        <v>869</v>
       </c>
       <c r="D342" s="8" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="14.25" customHeight="1">
       <c r="A343" s="5" t="s">
-        <v>952</v>
+        <v>870</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>953</v>
+        <v>871</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>954</v>
+        <v>1023</v>
       </c>
       <c r="D343" s="8" t="s">
-        <v>955</v>
+        <v>420</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="14.25" customHeight="1">
       <c r="A344" s="5" t="s">
-        <v>956</v>
+        <v>873</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>957</v>
+        <v>874</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>958</v>
+        <v>875</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="14.25" customHeight="1">
       <c r="A345" s="5" t="s">
-        <v>959</v>
+        <v>876</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>960</v>
+        <v>877</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>961</v>
+        <v>878</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="14.25" customHeight="1">
       <c r="A346" s="5" t="s">
-        <v>962</v>
+        <v>879</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>963</v>
+        <v>880</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>964</v>
+        <v>1022</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>361</v>
+        <v>564</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="14.25" customHeight="1">
       <c r="A347" s="5" t="s">
-        <v>965</v>
+        <v>881</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>966</v>
+        <v>882</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>967</v>
+        <v>1018</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>108</v>
+        <v>564</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="14.25" customHeight="1">
       <c r="A348" s="5" t="s">
-        <v>968</v>
+        <v>883</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>969</v>
+        <v>884</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>970</v>
+        <v>885</v>
       </c>
       <c r="D348" s="8" t="s">
-        <v>616</v>
+        <v>564</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="14.25" customHeight="1">
       <c r="A349" s="5" t="s">
-        <v>971</v>
+        <v>886</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>972</v>
+        <v>887</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>973</v>
+        <v>888</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="14.25" customHeight="1">
       <c r="A350" s="5" t="s">
-        <v>974</v>
+        <v>889</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>975</v>
+        <v>890</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>976</v>
+        <v>891</v>
       </c>
       <c r="D350" s="8" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="14.25" customHeight="1">
       <c r="A351" s="10" t="s">
-        <v>977</v>
+        <v>892</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>978</v>
+        <v>893</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>979</v>
+        <v>894</v>
       </c>
       <c r="D351" s="13" t="s">
-        <v>980</v>
+        <v>895</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="14.25" hidden="1" customHeight="1">
@@ -8813,604 +8823,604 @@
     </row>
     <row r="353" spans="1:4" ht="14.25" customHeight="1">
       <c r="A353" s="10" t="s">
-        <v>981</v>
+        <v>896</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>982</v>
+        <v>897</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>983</v>
+        <v>898</v>
       </c>
       <c r="D353" s="13" t="s">
-        <v>980</v>
+        <v>895</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="14.25" customHeight="1">
       <c r="A354" s="5" t="s">
-        <v>984</v>
+        <v>899</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>985</v>
+        <v>900</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>986</v>
+        <v>1013</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>459</v>
+        <v>564</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="14.25" customHeight="1">
       <c r="A355" s="10" t="s">
-        <v>987</v>
+        <v>901</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>988</v>
+        <v>902</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>989</v>
+        <v>903</v>
       </c>
       <c r="D355" s="13" t="s">
-        <v>955</v>
+        <v>872</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="14.25" customHeight="1">
       <c r="A356" s="5" t="s">
-        <v>990</v>
+        <v>904</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>991</v>
+        <v>905</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>992</v>
+        <v>906</v>
       </c>
       <c r="D356" s="8" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="14.25" customHeight="1">
       <c r="A357" s="10" t="s">
-        <v>993</v>
+        <v>907</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>994</v>
+        <v>908</v>
       </c>
       <c r="C357" s="12" t="s">
-        <v>995</v>
+        <v>909</v>
       </c>
       <c r="D357" s="13" t="s">
-        <v>980</v>
+        <v>895</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="14.25" customHeight="1">
       <c r="A358" s="5" t="s">
-        <v>996</v>
+        <v>910</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>997</v>
+        <v>911</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>998</v>
+        <v>1012</v>
       </c>
       <c r="D358" s="8" t="s">
-        <v>505</v>
+        <v>420</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="14.25" customHeight="1">
       <c r="A359" s="5" t="s">
-        <v>999</v>
+        <v>912</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>1000</v>
+        <v>913</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="D359" s="8" t="s">
-        <v>108</v>
+        <v>564</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="14.25" customHeight="1">
       <c r="A360" s="5" t="s">
-        <v>1002</v>
+        <v>914</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>1003</v>
+        <v>915</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>1004</v>
+        <v>1020</v>
       </c>
       <c r="D360" s="8" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="14.25" customHeight="1">
       <c r="A361" s="5" t="s">
-        <v>1005</v>
+        <v>916</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>1006</v>
+        <v>917</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>163</v>
+        <v>1017</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="362" spans="1:4" ht="14.25" customHeight="1">
       <c r="A362" s="5" t="s">
-        <v>1007</v>
+        <v>918</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>1008</v>
+        <v>919</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="D362" s="7" t="s">
-        <v>100</v>
+        <v>468</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="14.25" customHeight="1">
       <c r="A363" s="10" t="s">
-        <v>1010</v>
+        <v>920</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>1011</v>
+        <v>921</v>
       </c>
       <c r="C363" s="12" t="s">
-        <v>1012</v>
+        <v>922</v>
       </c>
       <c r="D363" s="12" t="s">
-        <v>589</v>
+        <v>541</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="14.25" customHeight="1">
       <c r="A364" s="5" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>1013</v>
+        <v>923</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="D364" s="7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="14.25" customHeight="1">
       <c r="A365" s="10" t="s">
-        <v>1014</v>
+        <v>924</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>1015</v>
+        <v>925</v>
       </c>
       <c r="C365" s="12" t="s">
-        <v>1016</v>
+        <v>926</v>
       </c>
       <c r="D365" s="12" t="s">
-        <v>841</v>
+        <v>765</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="14.25" customHeight="1">
       <c r="A366" s="10" t="s">
-        <v>1017</v>
+        <v>927</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>1018</v>
+        <v>928</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D366" s="12" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="14.25" customHeight="1">
       <c r="A367" s="5" t="s">
-        <v>1020</v>
+        <v>929</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>1021</v>
+        <v>930</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>1022</v>
+        <v>931</v>
       </c>
       <c r="D367" s="7" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="14.25" customHeight="1">
       <c r="A368" s="5" t="s">
-        <v>1023</v>
+        <v>932</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>1024</v>
+        <v>933</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D368" s="7" t="s">
-        <v>955</v>
+        <v>564</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="14.25" customHeight="1">
       <c r="A369" s="5" t="s">
-        <v>1026</v>
+        <v>934</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>1027</v>
+        <v>935</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>1028</v>
+        <v>936</v>
       </c>
       <c r="D369" s="7" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="14.25" customHeight="1">
       <c r="A370" s="5" t="s">
-        <v>1029</v>
+        <v>937</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>1030</v>
+        <v>938</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>1031</v>
+        <v>939</v>
       </c>
       <c r="D370" s="7" t="s">
-        <v>955</v>
+        <v>872</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="14.25" customHeight="1">
       <c r="A371" s="5" t="s">
-        <v>1032</v>
+        <v>940</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>1033</v>
+        <v>941</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D371" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="14.25" customHeight="1">
       <c r="A372" s="5" t="s">
-        <v>1034</v>
+        <v>942</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>1035</v>
+        <v>943</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D372" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="14.25" customHeight="1">
       <c r="A373" s="5" t="s">
-        <v>1036</v>
+        <v>944</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>1037</v>
+        <v>945</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>1038</v>
+        <v>946</v>
       </c>
       <c r="D373" s="7" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="14.25" customHeight="1">
       <c r="A374" s="5" t="s">
-        <v>1039</v>
+        <v>947</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>1040</v>
+        <v>948</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>1041</v>
+        <v>949</v>
       </c>
       <c r="D374" s="7" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="14.25" customHeight="1">
       <c r="A375" s="5" t="s">
-        <v>1042</v>
+        <v>950</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>1043</v>
+        <v>951</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>1044</v>
+        <v>952</v>
       </c>
       <c r="D375" s="7" t="s">
-        <v>955</v>
+        <v>872</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="14.25" customHeight="1">
       <c r="A376" s="5" t="s">
-        <v>1045</v>
+        <v>953</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>1046</v>
+        <v>954</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>1047</v>
+        <v>955</v>
       </c>
       <c r="D376" s="7" t="s">
-        <v>955</v>
+        <v>872</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="14.25" customHeight="1">
       <c r="A377" s="10" t="s">
-        <v>1048</v>
+        <v>956</v>
       </c>
       <c r="B377" s="11" t="s">
-        <v>1049</v>
+        <v>957</v>
       </c>
       <c r="C377" s="12" t="s">
-        <v>1050</v>
+        <v>958</v>
       </c>
       <c r="D377" s="12" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="14.25" customHeight="1">
       <c r="A378" s="5" t="s">
-        <v>1051</v>
+        <v>959</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>1052</v>
+        <v>960</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>1053</v>
+        <v>1014</v>
       </c>
       <c r="D378" s="7" t="s">
-        <v>108</v>
+        <v>564</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="14.25" customHeight="1">
       <c r="A379" s="5" t="s">
-        <v>1054</v>
+        <v>961</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>1055</v>
+        <v>962</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>1056</v>
+        <v>963</v>
       </c>
       <c r="D379" s="7" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="14.25" customHeight="1">
       <c r="A380" s="5" t="s">
-        <v>1057</v>
+        <v>964</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>1058</v>
+        <v>965</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>1059</v>
+        <v>966</v>
       </c>
       <c r="D380" s="7" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="14.25" customHeight="1">
       <c r="A381" s="5" t="s">
-        <v>1060</v>
+        <v>967</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>1061</v>
+        <v>968</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>1062</v>
+        <v>969</v>
       </c>
       <c r="D381" s="7" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="14.25" customHeight="1">
       <c r="A382" s="5" t="s">
-        <v>1063</v>
+        <v>970</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>1064</v>
+        <v>971</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D382" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="14.25" customHeight="1">
       <c r="A383" s="5" t="s">
-        <v>1065</v>
+        <v>972</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>1066</v>
+        <v>973</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>1067</v>
+        <v>974</v>
       </c>
       <c r="D383" s="7" t="s">
-        <v>1068</v>
+        <v>975</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="14.25" customHeight="1">
       <c r="A384" s="5" t="s">
-        <v>1069</v>
+        <v>976</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>1070</v>
+        <v>977</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D384" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="14.25" customHeight="1">
       <c r="A385" s="10" t="s">
-        <v>1071</v>
+        <v>978</v>
       </c>
       <c r="B385" s="11" t="s">
-        <v>1072</v>
+        <v>979</v>
       </c>
       <c r="C385" s="12" t="s">
-        <v>1073</v>
+        <v>980</v>
       </c>
       <c r="D385" s="12" t="s">
-        <v>589</v>
+        <v>541</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="14.25" customHeight="1">
       <c r="A386" s="5" t="s">
-        <v>1074</v>
+        <v>981</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>1075</v>
+        <v>982</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D386" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="14.25" customHeight="1">
       <c r="A387" s="10" t="s">
-        <v>1076</v>
+        <v>983</v>
       </c>
       <c r="B387" s="11" t="s">
-        <v>1077</v>
+        <v>984</v>
       </c>
       <c r="C387" s="12" t="s">
-        <v>1078</v>
+        <v>985</v>
       </c>
       <c r="D387" s="12" t="s">
-        <v>980</v>
+        <v>895</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="14.25" customHeight="1">
       <c r="A388" s="5" t="s">
-        <v>1079</v>
+        <v>986</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>1080</v>
+        <v>987</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D388" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="14.25" customHeight="1">
       <c r="A389" s="5" t="s">
-        <v>1081</v>
+        <v>988</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>1082</v>
+        <v>989</v>
       </c>
       <c r="C389" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D389" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="14.25" customHeight="1">
       <c r="A390" s="5" t="s">
-        <v>1083</v>
+        <v>990</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>1084</v>
+        <v>991</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D390" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="14.25" customHeight="1">
       <c r="A391" s="5" t="s">
-        <v>1085</v>
+        <v>992</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>1086</v>
+        <v>993</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>1087</v>
+        <v>994</v>
       </c>
       <c r="D391" s="7" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="14.25" customHeight="1">
       <c r="A392" s="5" t="s">
-        <v>1088</v>
+        <v>995</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>1089</v>
+        <v>996</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>1090</v>
+        <v>997</v>
       </c>
       <c r="D392" s="7" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="14.25" customHeight="1">
       <c r="A393" s="5" t="s">
-        <v>1091</v>
+        <v>998</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>1092</v>
+        <v>999</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>1093</v>
+        <v>1000</v>
       </c>
       <c r="D393" s="7" t="s">
-        <v>616</v>
+        <v>564</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="14.25" customHeight="1">
       <c r="A394" s="24" t="s">
-        <v>1094</v>
+        <v>1001</v>
       </c>
       <c r="B394" s="25" t="s">
-        <v>1095</v>
+        <v>1002</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>1096</v>
+        <v>1003</v>
       </c>
       <c r="D394" s="7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="14.25" customHeight="1">
       <c r="A395" s="24" t="s">
-        <v>1097</v>
+        <v>1004</v>
       </c>
       <c r="B395" s="26" t="s">
-        <v>1098</v>
+        <v>1005</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>1099</v>
+        <v>1006</v>
       </c>
       <c r="D395" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="14.25" customHeight="1">
@@ -13009,8 +13019,8 @@
   </sheetPr>
   <dimension ref="A1:F293"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -13018,13 +13028,13 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="32" t="s">
-        <v>1100</v>
+        <v>1007</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
@@ -13042,564 +13052,564 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="30" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="E2" s="39" t="str">
+        <v>434</v>
+      </c>
+      <c r="E2" t="str">
         <f>CONCATENATE(_xlfn.XLOOKUP($A2,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B2,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>E2004/H2162</v>
-      </c>
-      <c r="F2" s="39" t="str">
+        <v>J2304/H2162</v>
+      </c>
+      <c r="F2" t="str">
         <f>_xlfn.XLOOKUP($A2,Lotes!$A:$A,Lotes!$D:$D)</f>
-        <v>09/28</v>
+        <v>10/28</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="30" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="E3" s="39" t="str">
+        <v>437</v>
+      </c>
+      <c r="E3" t="str">
         <f>CONCATENATE(_xlfn.XLOOKUP($A3,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B3,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>E2004/H2161</v>
-      </c>
-      <c r="F3" s="39" t="str">
+        <v>J2304/J2267</v>
+      </c>
+      <c r="F3" t="str">
         <f>_xlfn.XLOOKUP($A3,Lotes!$A:$A,Lotes!$D:$D)</f>
-        <v>09/28</v>
+        <v>10/28</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>430</v>
-      </c>
-      <c r="E4" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A4,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B4,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>2025210BLEFA/</v>
-      </c>
-      <c r="F4" s="39" t="str">
+        <v>392</v>
+      </c>
+      <c r="E4" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A4,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>2025210BLEFA</v>
+      </c>
+      <c r="F4" t="str">
         <f>_xlfn.XLOOKUP($A4,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>02/27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="30" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="E5" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A5,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B5,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>20241609BLEFL/</v>
-      </c>
-      <c r="F5" s="39" t="str">
+        <v>394</v>
+      </c>
+      <c r="E5" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A5,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>20241609BLEFL</v>
+      </c>
+      <c r="F5" t="str">
         <f>_xlfn.XLOOKUP($A5,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>09/26</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="30" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="E6" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A6,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B6,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>20252207BLEMA/</v>
-      </c>
-      <c r="F6" s="39" t="str">
+        <v>396</v>
+      </c>
+      <c r="E6" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A6,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>20252207BLEMA</v>
+      </c>
+      <c r="F6" t="str">
         <f>_xlfn.XLOOKUP($A6,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>07/27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="30" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>436</v>
-      </c>
-      <c r="E7" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A7,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B7,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>20252602BLESR/</v>
-      </c>
-      <c r="F7" s="39" t="str">
+        <v>398</v>
+      </c>
+      <c r="E7" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A7,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>20252602BLESR</v>
+      </c>
+      <c r="F7" t="str">
         <f>_xlfn.XLOOKUP($A7,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>02/27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="30" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="E8" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A8,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B8,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>OLFA2508/</v>
-      </c>
-      <c r="F8" s="39" t="str">
+        <v>400</v>
+      </c>
+      <c r="E8" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A8,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>OLFA2508</v>
+      </c>
+      <c r="F8" t="str">
         <f>_xlfn.XLOOKUP($A8,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>08/27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="30" t="s">
-        <v>513</v>
+        <v>472</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>440</v>
-      </c>
-      <c r="E9" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A9,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B9,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>OLFL2508/</v>
-      </c>
-      <c r="F9" s="39" t="str">
+        <v>402</v>
+      </c>
+      <c r="E9" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A9,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>OLFL2510</v>
+      </c>
+      <c r="F9" t="str">
         <f>_xlfn.XLOOKUP($A9,Lotes!$A:$A,Lotes!$D:$D)</f>
-        <v>08/27</v>
+        <v>10/27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="30" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="E10" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A10,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B10,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>OLIN2508/</v>
-      </c>
-      <c r="F10" s="39" t="str">
+        <v>404</v>
+      </c>
+      <c r="E10" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A10,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>OLIN2508</v>
+      </c>
+      <c r="F10" t="str">
         <f>_xlfn.XLOOKUP($A10,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>08/27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="30" t="s">
-        <v>519</v>
+        <v>477</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="E11" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A11,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B11,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>OLLA2507/</v>
-      </c>
-      <c r="F11" s="39" t="str">
+        <v>406</v>
+      </c>
+      <c r="E11" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A11,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>OLLA2507</v>
+      </c>
+      <c r="F11" t="str">
         <f>_xlfn.XLOOKUP($A11,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>07/27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="30" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="E12" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A12,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B12,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>OLMP2509/</v>
-      </c>
-      <c r="F12" s="39" t="str">
+        <v>408</v>
+      </c>
+      <c r="E12" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A12,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>OLMP2509</v>
+      </c>
+      <c r="F12" t="str">
         <f>_xlfn.XLOOKUP($A12,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>09/27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="30" t="s">
-        <v>525</v>
+        <v>483</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="E13" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A13,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B13,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>OLMC2509/</v>
-      </c>
-      <c r="F13" s="39" t="str">
+        <v>410</v>
+      </c>
+      <c r="E13" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A13,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>OLMC2509</v>
+      </c>
+      <c r="F13" t="str">
         <f>_xlfn.XLOOKUP($A13,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>09/27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="30" t="s">
-        <v>532</v>
+        <v>490</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>450</v>
-      </c>
-      <c r="E14" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A14,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B14,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>OLPV2509/</v>
-      </c>
-      <c r="F14" s="39" t="str">
+        <v>412</v>
+      </c>
+      <c r="E14" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A14,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>OLPV2510</v>
+      </c>
+      <c r="F14" t="str">
         <f>_xlfn.XLOOKUP($A14,Lotes!$A:$A,Lotes!$D:$D)</f>
-        <v>09/27</v>
+        <v>10/27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="30" t="s">
-        <v>538</v>
+        <v>494</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>452</v>
-      </c>
-      <c r="E15" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A15,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B15,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>OLSR2508/</v>
-      </c>
-      <c r="F15" s="39" t="str">
+        <v>414</v>
+      </c>
+      <c r="E15" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A15,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>OLSR2508</v>
+      </c>
+      <c r="F15" t="str">
         <f>_xlfn.XLOOKUP($A15,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>08/27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="30" t="s">
-        <v>904</v>
+        <v>824</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="E16" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A16,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B16,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>240105/</v>
-      </c>
-      <c r="F16" s="39" t="str">
+        <v>443</v>
+      </c>
+      <c r="E16" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A16,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>240105</v>
+      </c>
+      <c r="F16" t="str">
         <f>_xlfn.XLOOKUP($A16,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>11/27</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="30" t="s">
-        <v>906</v>
+        <v>826</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="E17" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A17,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B17,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>250105/</v>
-      </c>
-      <c r="F17" s="39" t="str">
+        <v>445</v>
+      </c>
+      <c r="E17" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A17,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>250105</v>
+      </c>
+      <c r="F17" t="str">
         <f>_xlfn.XLOOKUP($A17,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>11/27</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="30" t="s">
-        <v>909</v>
+        <v>829</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="E18" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A18,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B18,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>240205/</v>
-      </c>
-      <c r="F18" s="39" t="str">
+        <v>448</v>
+      </c>
+      <c r="E18" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A18,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>240205</v>
+      </c>
+      <c r="F18" t="str">
         <f>_xlfn.XLOOKUP($A18,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>10/27</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="30" t="s">
-        <v>912</v>
+        <v>832</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>490</v>
-      </c>
-      <c r="E19" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A19,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B19,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>240204/</v>
-      </c>
-      <c r="F19" s="39" t="str">
+        <v>450</v>
+      </c>
+      <c r="E19" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A19,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>240204</v>
+      </c>
+      <c r="F19" t="str">
         <f>_xlfn.XLOOKUP($A19,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>09/27</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="30" t="s">
-        <v>918</v>
+        <v>838</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>492</v>
-      </c>
-      <c r="E20" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A20,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B20,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>240303/</v>
-      </c>
-      <c r="F20" s="39" t="str">
+        <v>452</v>
+      </c>
+      <c r="E20" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A20,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>240303</v>
+      </c>
+      <c r="F20" t="str">
         <f>_xlfn.XLOOKUP($A20,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>08/28</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="30" t="s">
-        <v>921</v>
+        <v>841</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>494</v>
-      </c>
-      <c r="E21" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A21,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B21,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>250302/</v>
-      </c>
-      <c r="F21" s="39" t="str">
+        <v>454</v>
+      </c>
+      <c r="E21" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A21,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>250302</v>
+      </c>
+      <c r="F21" t="str">
         <f>_xlfn.XLOOKUP($A21,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>07/28</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="30" t="s">
-        <v>927</v>
+        <v>846</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="E22" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A22,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B22,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>250601/</v>
-      </c>
-      <c r="F22" s="39" t="str">
+        <v>456</v>
+      </c>
+      <c r="E22" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A22,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>LEN89.0005</v>
+      </c>
+      <c r="F22" t="str">
         <f>_xlfn.XLOOKUP($A22,Lotes!$A:$A,Lotes!$D:$D)</f>
-        <v>03/28</v>
+        <v>10/28</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="30" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E23" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A23,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B23,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>250703/</v>
-      </c>
-      <c r="F23" s="39" t="str">
+        <v>1008</v>
+      </c>
+      <c r="E23" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A23,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>250703</v>
+      </c>
+      <c r="F23" t="str">
         <f>_xlfn.XLOOKUP($A23,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>06/28</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="30" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="36" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>501</v>
-      </c>
-      <c r="E24" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A24,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B24,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>20252602BLESR/</v>
-      </c>
-      <c r="F24" s="39" t="str">
+        <v>461</v>
+      </c>
+      <c r="E24" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A24,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>20252602BLESR</v>
+      </c>
+      <c r="F24" t="str">
         <f>_xlfn.XLOOKUP($A24,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>02/27</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="30" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="E25" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A25,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B25,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>20241609BLEFL/</v>
-      </c>
-      <c r="F25" s="39" t="str">
+        <v>428</v>
+      </c>
+      <c r="E25" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A25,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>20241609BLEFL</v>
+      </c>
+      <c r="F25" t="str">
         <f>_xlfn.XLOOKUP($A25,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>09/26</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="30" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="E26" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A26,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B26,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>2025210BLEFA/</v>
-      </c>
-      <c r="F26" s="39" t="str">
+        <v>426</v>
+      </c>
+      <c r="E26" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A26,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>2025210BLEFA</v>
+      </c>
+      <c r="F26" t="str">
         <f>_xlfn.XLOOKUP($A26,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>02/27</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="30" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="E27" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A27,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B27,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>20252207BLEMA/</v>
-      </c>
-      <c r="F27" s="39" t="str">
+        <v>432</v>
+      </c>
+      <c r="E27" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A27,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>20252207BLEMA</v>
+      </c>
+      <c r="F27" t="str">
         <f>_xlfn.XLOOKUP($A27,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>07/27</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="30" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="E28" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A28,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B28,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>20240601BLEPE/</v>
-      </c>
-      <c r="F28" s="39" t="str">
+        <v>441</v>
+      </c>
+      <c r="E28" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A28,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>20240601BLEPE</v>
+      </c>
+      <c r="F28" t="str">
         <f>_xlfn.XLOOKUP($A28,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>06/26</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="30" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="36" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E29" s="39" t="str">
-        <f>CONCATENATE(_xlfn.XLOOKUP($A29,Lotes!$A:$A,Lotes!$C:$C),"/",_xlfn.XLOOKUP($B29,Lotes!$A:$A,Lotes!$C:$C))</f>
-        <v>20252207BLEMA/</v>
-      </c>
-      <c r="F29" s="39" t="str">
+        <v>1009</v>
+      </c>
+      <c r="E29" s="40" t="str">
+        <f>CONCATENATE(_xlfn.XLOOKUP($A29,Lotes!$A:$A,Lotes!$C:$C))</f>
+        <v>20252207BLEMA</v>
+      </c>
+      <c r="F29" t="str">
         <f>_xlfn.XLOOKUP($A29,Lotes!$A:$A,Lotes!$D:$D)</f>
         <v>07/27</v>
       </c>
